--- a/Tables-and-figures-of-results.xlsx
+++ b/Tables-and-figures-of-results.xlsx
@@ -5,23 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TajaK\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\Applying-GENRE-on-MaCoCu-bilingual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21787730-73D0-412E-A8C1-A529DC6258C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B26CDC-8DA1-4A86-96B1-5F92ADCC89FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison of datasets" sheetId="1" r:id="rId1"/>
-    <sheet name="Distr in IS" sheetId="2" r:id="rId2"/>
-    <sheet name="Distr in MT" sheetId="4" r:id="rId3"/>
-    <sheet name="Distr in SL" sheetId="3" r:id="rId4"/>
+    <sheet name="Sizes of datasets" sheetId="5" r:id="rId2"/>
+    <sheet name="Length difference" sheetId="7" r:id="rId3"/>
+    <sheet name="English-dist" sheetId="8" r:id="rId4"/>
+    <sheet name="Distr in MK" sheetId="6" r:id="rId5"/>
+    <sheet name="Distr in IS" sheetId="2" r:id="rId6"/>
+    <sheet name="Distr in MT" sheetId="4" r:id="rId7"/>
+    <sheet name="Distr in SL" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Distr in IS'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Distr in MT'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Distr in SL'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Distr in IS'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Distr in MK'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Distr in MT'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Distr in SL'!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>MaCoCu-sl-en</t>
   </si>
@@ -112,12 +117,105 @@
   <si>
     <t>%</t>
   </si>
+  <si>
+    <t>MaCoCu-mk-en</t>
+  </si>
+  <si>
+    <t>B: 19 %, A: 31%</t>
+  </si>
+  <si>
+    <t>B: 20%, A: 49%</t>
+  </si>
+  <si>
+    <t>Original no. of texts</t>
+  </si>
+  <si>
+    <t>Pre-processed dataset (texts)</t>
+  </si>
+  <si>
+    <t>Texts with genre labels</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>MaCoCu-mk</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Similar length to the general length (10 words difference)</t>
+  </si>
+  <si>
+    <t>Slightly shorter (10-100 words difference)</t>
+  </si>
+  <si>
+    <t>Slightly longer (10-100 words difference)</t>
+  </si>
+  <si>
+    <t>Much longer (more than 100 words difference)</t>
+  </si>
+  <si>
+    <t>Similar distribution (less than 5 points difference)</t>
+  </si>
+  <si>
+    <t>More B, more A</t>
+  </si>
+  <si>
+    <t>More B, less A</t>
+  </si>
+  <si>
+    <t>More A</t>
+  </si>
+  <si>
+    <t>MaCoCu-sl</t>
+  </si>
+  <si>
+    <t>Less B</t>
+  </si>
+  <si>
+    <t>Less B, more A</t>
+  </si>
+  <si>
+    <t>MaCoCu-is</t>
+  </si>
+  <si>
+    <t>MaCoCu-mt</t>
+  </si>
+  <si>
+    <t>Much shorter (more than 100 words difference)</t>
+  </si>
+  <si>
+    <t>Most frequent domain (frequency)</t>
+  </si>
+  <si>
+    <t>Number of domains which cover more than 1% of texts</t>
+  </si>
+  <si>
+    <t>oblacila.si (4%)</t>
+  </si>
+  <si>
+    <t>norden (7%)</t>
+  </si>
+  <si>
+    <t>Sum of % covered by these domains</t>
+  </si>
+  <si>
+    <t>europarl.europa.eu (23%)</t>
+  </si>
+  <si>
+    <t>stat.gov.mk (6%)</t>
+  </si>
+  <si>
+    <t>MaCoCu-tr-en</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +238,65 @@
       <sz val="8"/>
       <color rgb="FF24292F"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -166,19 +323,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -191,11 +343,63 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -212,7 +416,78 @@
         <name val="Nunito"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Nunito"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Nunito"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Nunito"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Nunito"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -250,59 +525,6 @@
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Nunito"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Nunito"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Nunito"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -317,6 +539,642 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MaCoCu-mk-en</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Distr in MK'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-369D-44F9-BF0F-49ABE8E47791}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-369D-44F9-BF0F-49ABE8E47791}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-369D-44F9-BF0F-49ABE8E47791}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-369D-44F9-BF0F-49ABE8E47791}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-369D-44F9-BF0F-49ABE8E47791}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-369D-44F9-BF0F-49ABE8E47791}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-369D-44F9-BF0F-49ABE8E47791}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Nunito" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SI"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Distr in MK'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Information/Explanation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instruction</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Opinion/Argumentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Promotion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prose/Lyrical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Distr in MK'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.26347700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5707200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8541899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45877299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5458500000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15615699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.18858E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-369D-44F9-BF0F-49ABE8E47791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -921,7 +1779,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1592,7 +2450,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2383,6 +3241,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
@@ -3889,7 +4787,552 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A98EE9-A8FB-4050-9365-AA503916B2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3930,7 +5373,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3973,7 +5416,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4017,13 +5460,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:D6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:D6" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E9" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4326,103 +5770,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1544E46A-78C9-4250-9787-2ED89FE698E6}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="25" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="4" max="4" width="26.26953125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.5">
+      <c r="E1" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.5">
+      <c r="E2" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.5">
+      <c r="E3" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="24">
         <v>0.12</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="24">
         <v>0.23</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="24">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.5">
+      <c r="E4" s="24">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="26">
         <v>190</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="26">
         <v>201</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="26">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.5">
+      <c r="E5" s="23">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="23">
         <v>0.91</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="23">
         <v>0.88</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="23">
         <v>0.93</v>
       </c>
+      <c r="E6" s="23">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="23">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>16</v>
+      </c>
+      <c r="D7" s="23">
+        <v>13</v>
+      </c>
+      <c r="E7" s="23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.77</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4434,11 +6032,519 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C8F5A9-FD81-4CD5-A93B-E2A92366F94E}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11">
+        <v>285892</v>
+      </c>
+      <c r="C2" s="11">
+        <v>101807</v>
+      </c>
+      <c r="D2" s="11">
+        <v>91459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11">
+        <v>47206</v>
+      </c>
+      <c r="C3" s="11">
+        <v>23999</v>
+      </c>
+      <c r="D3" s="11">
+        <v>21376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11">
+        <v>40340</v>
+      </c>
+      <c r="C4" s="11">
+        <v>13174</v>
+      </c>
+      <c r="D4" s="11">
+        <v>11639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8">
+        <v>54957</v>
+      </c>
+      <c r="C5" s="8">
+        <v>22055</v>
+      </c>
+      <c r="D5" s="8">
+        <v>20108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5045AAAD-7A1A-42C3-8572-22A393E9AA9D}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="42.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F2D52-0DC5-49D1-854E-0E75D3795ABD}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D9752B-20C6-4797-82E8-FBA3F0E6167C}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="15">
+        <v>0.26347700000000002</v>
+      </c>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="15">
+        <v>3.5707200000000001E-2</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="15">
+        <v>3.8541899999999997E-2</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.45877299999999999</v>
+      </c>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15">
+        <v>3.5458500000000004E-2</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.15615699999999999</v>
+      </c>
+      <c r="C7" s="18"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1.18858E-2</v>
+      </c>
+      <c r="C8" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{00D9752B-20C6-4797-82E8-FBA3F0E6167C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB718D3-C404-4D39-8DA3-A6344E204ED8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4449,66 +6555,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>0.32245000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>0.15903400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>5.7736900000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>0.25053700000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>5.1121199999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>0.155168</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>3.9522300000000002E-3</v>
       </c>
     </row>
@@ -4523,7 +6629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -4538,66 +6644,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>0.192131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>8.5563200000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>0.27891100000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>0.34997200000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>3.83608E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>2.7507500000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="23" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>2.75543E-2</v>
       </c>
     </row>
@@ -4612,11 +6718,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AA5A83-BD6D-41DA-9982-1ACA03113A1A}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -4627,66 +6733,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>0.33137299999999997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>0.10716299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>5.8135300000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>0.13347000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>4.3516800000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>0.323959</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="23" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>2.3835800000000002E-3</v>
       </c>
     </row>

--- a/Tables-and-figures-of-results.xlsx
+++ b/Tables-and-figures-of-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\Applying-GENRE-on-MaCoCu-bilingual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B26CDC-8DA1-4A86-96B1-5F92ADCC89FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78701115-B656-4B6C-B313-4DF7599EEC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison of datasets" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
   <si>
     <t>MaCoCu-sl-en</t>
   </si>
@@ -210,6 +210,15 @@
   <si>
     <t>MaCoCu-tr-en</t>
   </si>
+  <si>
+    <t>B: 12%, A: 34%</t>
+  </si>
+  <si>
+    <t>100% UNK (??)</t>
+  </si>
+  <si>
+    <t>booking.com (7%)</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -393,13 +402,16 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -452,6 +464,7 @@
         <name val="Nunito"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -488,6 +501,23 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Nunito"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5460,14 +5490,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E9" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:F9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F9" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{ACADC0CF-87FF-416A-B324-D9B8F1FD6713}" name="MaCoCu-tr-en" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5770,10 +5801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1544E46A-78C9-4250-9787-2ED89FE698E6}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5781,11 +5812,12 @@
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" style="25" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="25" customWidth="1"/>
     <col min="5" max="5" width="16.453125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5801,8 +5833,11 @@
       <c r="E1" s="23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+      <c r="F1" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5818,8 +5853,11 @@
       <c r="E2" s="23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+      <c r="F2" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5835,8 +5873,11 @@
       <c r="E3" s="23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+      <c r="F3" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5852,8 +5893,11 @@
       <c r="E4" s="24">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+      <c r="F4" s="24">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -5869,8 +5913,11 @@
       <c r="E5" s="23">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+      <c r="F5" s="23">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5886,8 +5933,11 @@
       <c r="E6" s="23">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+      <c r="F6" s="23">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -5903,8 +5953,11 @@
       <c r="E7" s="23">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+      <c r="F7" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -5920,8 +5973,11 @@
       <c r="E8" s="24">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.5">
+      <c r="F8" s="24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -5937,44 +5993,48 @@
       <c r="E9" s="23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -6035,8 +6095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C8F5A9-FD81-4CD5-A93B-E2A92366F94E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6121,7 +6181,12 @@
       <c r="A6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="27">
+        <v>796473</v>
+      </c>
+      <c r="C6" s="28">
+        <v>213147</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6290,7 +6355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F2D52-0DC5-49D1-854E-0E75D3795ABD}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Tables-and-figures-of-results.xlsx
+++ b/Tables-and-figures-of-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\Applying-GENRE-on-MaCoCu-bilingual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78701115-B656-4B6C-B313-4DF7599EEC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A25AD53-5EF6-4984-A649-B421306CC70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
   </bookViews>
@@ -21,12 +21,14 @@
     <sheet name="Distr in IS" sheetId="2" r:id="rId6"/>
     <sheet name="Distr in MT" sheetId="4" r:id="rId7"/>
     <sheet name="Distr in SL" sheetId="3" r:id="rId8"/>
+    <sheet name="Distr in TR" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Distr in IS'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Distr in MK'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Distr in MT'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Distr in SL'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Distr in TR'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="60">
   <si>
     <t>MaCoCu-sl-en</t>
   </si>
@@ -160,12 +162,6 @@
     <t>Similar distribution (less than 5 points difference)</t>
   </si>
   <si>
-    <t>More B, more A</t>
-  </si>
-  <si>
-    <t>More B, less A</t>
-  </si>
-  <si>
     <t>More A</t>
   </si>
   <si>
@@ -173,9 +169,6 @@
   </si>
   <si>
     <t>Less B</t>
-  </si>
-  <si>
-    <t>Less B, more A</t>
   </si>
   <si>
     <t>MaCoCu-is</t>
@@ -218,6 +211,24 @@
   </si>
   <si>
     <t>booking.com (7%)</t>
+  </si>
+  <si>
+    <t>MaCoCu-tr</t>
+  </si>
+  <si>
+    <t>Less A</t>
+  </si>
+  <si>
+    <t>More B</t>
+  </si>
+  <si>
+    <t>MaCoCu-bg-en</t>
+  </si>
+  <si>
+    <t>B: 18%, A: 33%</t>
+  </si>
+  <si>
+    <t>B: 30%, A: 40%</t>
   </si>
 </sst>
 </file>
@@ -291,12 +302,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -308,8 +313,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -383,11 +400,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -402,16 +419,54 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Nunito"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3151,6 +3206,677 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MaCoCu-tr-en</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Distr in TR'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-74C1-468C-92D8-120CDB8BF2F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-74C1-468C-92D8-120CDB8BF2F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-74C1-468C-92D8-120CDB8BF2F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-74C1-468C-92D8-120CDB8BF2F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-74C1-468C-92D8-120CDB8BF2F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-74C1-468C-92D8-120CDB8BF2F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-74C1-468C-92D8-120CDB8BF2F6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5945330296127606E-2"/>
+                  <c:y val="-1.909700161202999E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-74C1-468C-92D8-120CDB8BF2F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8724373576309798E-2"/>
+                  <c:y val="-1.909700161202999E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-74C1-468C-92D8-120CDB8BF2F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.3394077448747156E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-74C1-468C-92D8-120CDB8BF2F6}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Nunito" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SI"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Distr in TR'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Information/Explanation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instruction</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Opinion/Argumentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Promotion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prose/Lyrical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Distr in TR'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.277673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16120699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1772800000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.134713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3107500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37993199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.59458E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-74C1-468C-92D8-120CDB8BF2F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3311,6 +4037,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
@@ -4818,6 +5584,508 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5489,16 +6757,60 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE0E09B-26A3-4CEC-8479-AAA5CE7AEE1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:F9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F9" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{ACADC0CF-87FF-416A-B324-D9B8F1FD6713}" name="MaCoCu-tr-en" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G9" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{ACADC0CF-87FF-416A-B324-D9B8F1FD6713}" name="MaCoCu-tr-en" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{639BF3DA-AEA9-4381-8871-12EC8F4CCD06}" name="MaCoCu-bg-en" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5801,10 +7113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1544E46A-78C9-4250-9787-2ED89FE698E6}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5815,9 +7127,10 @@
     <col min="4" max="4" width="18.54296875" style="25" customWidth="1"/>
     <col min="5" max="5" width="16.453125" style="25" customWidth="1"/>
     <col min="6" max="6" width="18.36328125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5834,10 +7147,13 @@
         <v>23</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>50</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5854,10 +7170,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>51</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5874,10 +7193,13 @@
         <v>25</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+        <v>52</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5896,8 +7218,11 @@
       <c r="F4" s="24">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="G4" s="24">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -5916,8 +7241,11 @@
       <c r="F5" s="23">
         <v>184</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="G5" s="23">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5936,10 +7264,13 @@
       <c r="F6" s="23">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="G6" s="23">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="23">
         <v>5</v>
@@ -5956,10 +7287,11 @@
       <c r="F7" s="23">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="24">
         <v>0.1</v>
@@ -5976,48 +7308,50 @@
       <c r="F8" s="24">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="D9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="E9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>52</v>
-      </c>
       <c r="F9" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -6093,10 +7427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C8F5A9-FD81-4CD5-A93B-E2A92366F94E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6121,7 +7455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -6135,7 +7469,7 @@
         <v>91459</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -6167,25 +7501,39 @@
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="27">
         <v>54957</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="27">
         <v>22055</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="27">
         <v>20108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="27">
+        <v>50</v>
+      </c>
+      <c r="B6" s="28">
         <v>796473</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="29">
         <v>213147</v>
+      </c>
+      <c r="D6" s="27">
+        <v>193782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8">
+        <v>287456</v>
+      </c>
+      <c r="C7" s="8">
+        <v>107404</v>
       </c>
     </row>
   </sheetData>
@@ -6196,10 +7544,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5045AAAD-7A1A-42C3-8572-22A393E9AA9D}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6207,10 +7555,11 @@
     <col min="1" max="1" width="24.36328125" customWidth="1"/>
     <col min="2" max="2" width="20.6328125" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="42.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
@@ -6218,132 +7567,156 @@
         <v>30</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="36" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6353,20 +7726,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F2D52-0DC5-49D1-854E-0E75D3795ABD}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.26953125" customWidth="1"/>
     <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="41.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
@@ -6374,133 +7749,324 @@
         <v>30</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
-        <v>42</v>
+      <c r="C5" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
+      <c r="D8" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6870,4 +8436,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27" style="35" customWidth="1"/>
+    <col min="2" max="3" width="21.26953125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="34">
+        <v>0.277673</v>
+      </c>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0.16120699999999999</v>
+      </c>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="34">
+        <v>3.1772800000000004E-2</v>
+      </c>
+      <c r="C4" s="34"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="34">
+        <v>0.134713</v>
+      </c>
+      <c r="C5" s="34"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="34">
+        <v>1.3107500000000001E-2</v>
+      </c>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="34">
+        <v>0.37993199999999999</v>
+      </c>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="34">
+        <v>1.59458E-3</v>
+      </c>
+      <c r="C8" s="34"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tables-and-figures-of-results.xlsx
+++ b/Tables-and-figures-of-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\Applying-GENRE-on-MaCoCu-bilingual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A25AD53-5EF6-4984-A649-B421306CC70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52773513-0B27-473C-AEAC-12732F5B0EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison of datasets" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,10 @@
     <sheet name="Distr in MT" sheetId="4" r:id="rId7"/>
     <sheet name="Distr in SL" sheetId="3" r:id="rId8"/>
     <sheet name="Distr in TR" sheetId="9" r:id="rId9"/>
+    <sheet name="Distr in BG" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Distr in BG'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Distr in IS'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Distr in MK'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Distr in MT'!$A$1:$B$1</definedName>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="64">
   <si>
     <t>MaCoCu-sl-en</t>
   </si>
@@ -230,6 +232,18 @@
   <si>
     <t>B: 30%, A: 40%</t>
   </si>
+  <si>
+    <t>88,544 (18% discarded!)</t>
+  </si>
+  <si>
+    <t>goldenpages.bg (12%)</t>
+  </si>
+  <si>
+    <t>MaCoCu-bg</t>
+  </si>
+  <si>
+    <t>Macocu-bg</t>
+  </si>
 </sst>
 </file>
 
@@ -353,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -372,7 +386,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -443,12 +456,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Nunito"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -556,23 +596,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Nunito"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3877,6 +3900,677 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MaCoCu-bg-en</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Distr in BG'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5945330296127606E-2"/>
+                  <c:y val="-1.909700161202999E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4A32-40F5-A670-7D6DB55CE4D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.644646924829157E-2"/>
+                  <c:y val="-0.22083333333333333"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4A32-40F5-A670-7D6DB55CE4D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.3394077448747156E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-4A32-40F5-A670-7D6DB55CE4D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Nunito" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SI"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Distr in BG'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Information/Explanation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instruction</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Opinion/Argumentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Promotion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prose/Lyrical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Distr in BG'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.23852499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6639899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0696599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.191916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4397399999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39335199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4723499999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-4A32-40F5-A670-7D6DB55CE4D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4077,6 +4771,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
@@ -6086,6 +6820,508 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6800,17 +8036,59 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B163C3B-ADAA-4DFD-B7DC-6EB04C1D0E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G9" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{ACADC0CF-87FF-416A-B324-D9B8F1FD6713}" name="MaCoCu-tr-en" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{639BF3DA-AEA9-4381-8871-12EC8F4CCD06}" name="MaCoCu-bg-en" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{ACADC0CF-87FF-416A-B324-D9B8F1FD6713}" name="MaCoCu-tr-en" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{639BF3DA-AEA9-4381-8871-12EC8F4CCD06}" name="MaCoCu-bg-en" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7115,306 +8393,311 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1544E46A-78C9-4250-9787-2ED89FE698E6}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="24" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>0.12</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>0.23</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>0.59</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>0.41</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>0.33</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>0.46</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>190</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>201</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>300</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>194</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>184</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>0.91</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>0.88</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>0.93</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>0.93</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>0.88</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>0.91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.5">
+      <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>5</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>16</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>13</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>26</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>7</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="22">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>0.1</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>0.35</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>0.77</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>0.38</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>0.15</v>
       </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.5">
+      <c r="A9" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7425,12 +8708,96 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1343A133-63B5-47F9-820E-915378298B5C}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="29.36328125" style="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.23852499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="33">
+        <v>7.6639899999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="33">
+        <v>3.0696599999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.191916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="33">
+        <v>6.4397399999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0.39335199999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="33">
+        <v>4.4723499999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C8F5A9-FD81-4CD5-A93B-E2A92366F94E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7438,102 +8805,105 @@
     <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="22.36328125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>285892</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>101807</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>91459</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>47206</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>23999</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>21376</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>40340</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>13174</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>11639</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>54957</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>22055</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>20108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>796473</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>213147</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>193782</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="26">
         <v>287456</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="26">
         <v>107404</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7544,10 +8914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5045AAAD-7A1A-42C3-8572-22A393E9AA9D}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7559,164 +8929,188 @@
     <col min="5" max="5" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>34</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -7726,10 +9120,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F2D52-0DC5-49D1-854E-0E75D3795ABD}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7739,334 +9133,478 @@
     <col min="3" max="3" width="18.36328125" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" customWidth="1"/>
     <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>54</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>36</v>
-      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>39</v>
-      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="38"/>
+      <c r="G12" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="37" t="s">
+      <c r="C13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="38"/>
+      <c r="G13" s="36" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="38"/>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="38"/>
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C23" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="E23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="F23" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="38"/>
+      <c r="E24" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8085,79 +9623,79 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="17"/>
+    <col min="2" max="2" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>0.26347700000000002</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>3.5707200000000001E-2</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>3.8541899999999997E-2</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>0.45877299999999999</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>3.5458500000000004E-2</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>0.15615699999999999</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>1.18858E-2</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00D9752B-20C6-4797-82E8-FBA3F0E6167C}">
@@ -8174,7 +9712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB718D3-C404-4D39-8DA3-A6344E204ED8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -8448,82 +9986,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27" style="35" customWidth="1"/>
-    <col min="2" max="3" width="21.26953125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="32"/>
+    <col min="1" max="1" width="27" style="34" customWidth="1"/>
+    <col min="2" max="3" width="21.26953125" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>0.277673</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>0.16120699999999999</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>3.1772800000000004E-2</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>0.134713</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>1.3107500000000001E-2</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>0.37993199999999999</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>1.59458E-3</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">

--- a/Tables-and-figures-of-results.xlsx
+++ b/Tables-and-figures-of-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\Applying-GENRE-on-MaCoCu-bilingual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52773513-0B27-473C-AEAC-12732F5B0EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990CDFDE-85BB-47FF-91A1-F19CAEE1A4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison of datasets" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="149">
   <si>
     <t>MaCoCu-sl-en</t>
   </si>
@@ -243,13 +243,268 @@
   </si>
   <si>
     <t>Macocu-bg</t>
+  </si>
+  <si>
+    <t>A': 2706, 'B': 1852, 'MIX': 496, 'UNK': 4171</t>
+  </si>
+  <si>
+    <t>A': 1122, 'B': 6761, 'MIX': 541, 'UNK': 3783</t>
+  </si>
+  <si>
+    <t>A': 313, 'B': 1455, 'MIX': 123, 'UNK': 1025</t>
+  </si>
+  <si>
+    <t>A': 179, 'B': 5053, 'MIX': 170, 'UNK': 2079</t>
+  </si>
+  <si>
+    <t>A': 7520, 'B': 3919, 'MIX': 89, 'UNK': 14577</t>
+  </si>
+  <si>
+    <t>A': 4715, 'B': 3941, 'MIX': 911, 'UNK': 7426</t>
+  </si>
+  <si>
+    <t>A': 255, 'B': 181, 'MIX': 65, 'UNK': 212</t>
+  </si>
+  <si>
+    <t>A': 686, 'B': 1716, 'MIX': 262, 'UNK': 1316</t>
+  </si>
+  <si>
+    <t>A': 148, 'B': 216, 'MIX': 49, 'UNK': 182</t>
+  </si>
+  <si>
+    <t>A': 281, 'B': 331, 'MIX': 34, 'UNK': 174</t>
+  </si>
+  <si>
+    <t>A': 968, 'B': 225, 'MIX': 35, 'UNK': 1312</t>
+  </si>
+  <si>
+    <t>A': 1507, 'B': 729, 'MIX': 271, 'UNK': 3195</t>
+  </si>
+  <si>
+    <t>A': 1114, 'B': 470, 'MIX': 159, 'UNK': 1397</t>
+  </si>
+  <si>
+    <t>A': 6608, 'B': 10522, 'MIX': 2327, 'UNK': 10172</t>
+  </si>
+  <si>
+    <t>A': 513, 'B': 443, 'MIX': 128, 'UNK': 722</t>
+  </si>
+  <si>
+    <t>A': 40, 'B': 307, 'MIX': 15, 'UNK': 226</t>
+  </si>
+  <si>
+    <t>A': 27777, 'B': 16531, 'MIX': 707, 'UNK': 28609</t>
+  </si>
+  <si>
+    <t>A': 14934, 'B': 5605, 'MIX': 2865, 'UNK': 11425</t>
+  </si>
+  <si>
+    <t>A': 232, 'B': 115, 'MIX': 26, 'UNK': 345</t>
+  </si>
+  <si>
+    <t>A': 2112, 'B': 2526, 'MIX': 333, 'UNK': 4830</t>
+  </si>
+  <si>
+    <t>A': 394, 'B': 646, 'MIX': 108, 'UNK': 703</t>
+  </si>
+  <si>
+    <t>A': 250, 'B': 931, 'MIX': 56, 'UNK': 592</t>
+  </si>
+  <si>
+    <t>A': 7770, 'B': 1767, 'MIX': 110, 'UNK': 21592</t>
+  </si>
+  <si>
+    <t>A': 2478, 'B': 1168, 'MIX': 347, 'UNK': 2793</t>
+  </si>
+  <si>
+    <t>A': 1680, 'B': 918, 'MIX': 301, 'UNK': 2399</t>
+  </si>
+  <si>
+    <t>A': 4361, 'B': 13091, 'MIX': 1932, 'UNK': 10923</t>
+  </si>
+  <si>
+    <t>A': 545, 'B': 1495, 'MIX': 195, 'UNK': 1518</t>
+  </si>
+  <si>
+    <t>A': 658, 'B': 2411, 'MIX': 142, 'UNK': 896</t>
+  </si>
+  <si>
+    <t>A': 16183, 'B': 2251, 'MIX': 257, 'UNK': 35117</t>
+  </si>
+  <si>
+    <t>A': 7614, 'B': 4446, 'MIX': 1713, 'UNK': 7347</t>
+  </si>
+  <si>
+    <t>A': 179, 'B': 193, 'MIX': 45, 'UNK': 358</t>
+  </si>
+  <si>
+    <t>A': 317, 'B': 3667, 'MIX': 196, 'UNK': 1137</t>
+  </si>
+  <si>
+    <t>A': 84, 'B': 338, 'MIX': 39, 'UNK': 211</t>
+  </si>
+  <si>
+    <t>A': 218, 'B': 4481, 'MIX': 253, 'UNK': 1010</t>
+  </si>
+  <si>
+    <t>A': 2967, 'B': 531, 'MIX': 67, 'UNK': 2592</t>
+  </si>
+  <si>
+    <t>A': 673, 'B': 818, 'MIX': 200, 'UNK': 1027</t>
+  </si>
+  <si>
+    <t>A': 94, 'B': 53, 'MIX': 9, 'UNK': 83</t>
+  </si>
+  <si>
+    <t>A': 54, 'B': 72, 'MIX': 20, 'UNK': 72</t>
+  </si>
+  <si>
+    <t>A': 13, 'B': 14, 'MIX': 2, 'UNK': 17</t>
+  </si>
+  <si>
+    <t>A': 295, 'B': 22, 'MIX': 7, 'UNK': 265</t>
+  </si>
+  <si>
+    <t>A': 133, 'B': 10, 'MIX': 24, 'UNK': 142</t>
+  </si>
+  <si>
+    <t>A': 124, 'B': 119, 'MIX': 31, 'UNK': 122</t>
+  </si>
+  <si>
+    <t>A': 29.33, 'B': 20.08, 'MIX': 5.38, 'UNK': 45.21</t>
+  </si>
+  <si>
+    <t>A': 9.19, 'B': 55.39, 'MIX': 4.43, 'UNK': 30.99</t>
+  </si>
+  <si>
+    <t>A': 10.73, 'B': 49.9, 'MIX': 4.22, 'UNK': 35.15</t>
+  </si>
+  <si>
+    <t>A': 2.39, 'B': 67.54, 'MIX': 2.27, 'UNK': 27.79</t>
+  </si>
+  <si>
+    <t>A': 28.81, 'B': 15.01, 'MIX': 0.34, 'UNK': 55.84</t>
+  </si>
+  <si>
+    <t>A': 27.75, 'B': 23.19, 'MIX': 5.36, 'UNK': 43.7</t>
+  </si>
+  <si>
+    <t>A': 35.76, 'B': 25.39, 'MIX': 9.12, 'UNK': 29.73</t>
+  </si>
+  <si>
+    <t>A': 17.24, 'B': 43.12, 'MIX': 6.58, 'UNK': 33.07</t>
+  </si>
+  <si>
+    <t>A': 24.87, 'B': 36.3, 'MIX': 8.24, 'UNK': 30.59</t>
+  </si>
+  <si>
+    <t>A': 34.27, 'B': 40.37, 'MIX': 4.15, 'UNK': 21.22</t>
+  </si>
+  <si>
+    <t>A': 38.11, 'B': 8.86, 'MIX': 1.38, 'UNK': 51.65</t>
+  </si>
+  <si>
+    <t>A': 26.43, 'B': 12.78, 'MIX': 4.75, 'UNK': 56.03</t>
+  </si>
+  <si>
+    <t>A': 35.48, 'B': 14.97, 'MIX': 5.06, 'UNK': 44.49</t>
+  </si>
+  <si>
+    <t>A': 22.3, 'B': 35.51, 'MIX': 7.85, 'UNK': 34.33</t>
+  </si>
+  <si>
+    <t>A': 28.41, 'B': 24.53, 'MIX': 7.09, 'UNK': 39.98</t>
+  </si>
+  <si>
+    <t>A': 6.8, 'B': 52.21, 'MIX': 2.55, 'UNK': 38.44</t>
+  </si>
+  <si>
+    <t>A': 37.73, 'B': 22.45, 'MIX': 0.96, 'UNK': 38.86</t>
+  </si>
+  <si>
+    <t>A': 42.88, 'B': 16.09, 'MIX': 8.23, 'UNK': 32.8</t>
+  </si>
+  <si>
+    <t>A': 32.31, 'B': 16.02, 'MIX': 3.62, 'UNK': 48.05</t>
+  </si>
+  <si>
+    <t>A': 21.55, 'B': 25.77, 'MIX': 3.4, 'UNK': 49.28</t>
+  </si>
+  <si>
+    <t>A': 21.29, 'B': 34.9, 'MIX': 5.83, 'UNK': 37.98</t>
+  </si>
+  <si>
+    <t>A': 13.67, 'B': 50.9, 'MIX': 3.06, 'UNK': 32.37</t>
+  </si>
+  <si>
+    <t>A': 24.87, 'B': 5.66, 'MIX': 0.35, 'UNK': 69.12</t>
+  </si>
+  <si>
+    <t>A': 36.52, 'B': 17.21, 'MIX': 5.11, 'UNK': 41.16</t>
+  </si>
+  <si>
+    <t>A': 31.71, 'B': 17.33, 'MIX': 5.68, 'UNK': 45.28</t>
+  </si>
+  <si>
+    <t>A': 14.39, 'B': 43.19, 'MIX': 6.37, 'UNK': 36.04</t>
+  </si>
+  <si>
+    <t>A': 14.52, 'B': 39.83, 'MIX': 5.2, 'UNK': 40.45</t>
+  </si>
+  <si>
+    <t>A': 16.02, 'B': 58.7, 'MIX': 3.46, 'UNK': 21.82</t>
+  </si>
+  <si>
+    <t>A': 30.08, 'B': 4.18, 'MIX': 0.48, 'UNK': 65.26</t>
+  </si>
+  <si>
+    <t>A': 36.05, 'B': 21.05, 'MIX': 8.11, 'UNK': 34.79</t>
+  </si>
+  <si>
+    <t>A': 23.1, 'B': 24.9, 'MIX': 5.81, 'UNK': 46.19</t>
+  </si>
+  <si>
+    <t>A': 5.96, 'B': 68.97, 'MIX': 3.69, 'UNK': 21.38</t>
+  </si>
+  <si>
+    <t>A': 12.5, 'B': 50.3, 'MIX': 5.8, 'UNK': 31.4</t>
+  </si>
+  <si>
+    <t>A': 3.66, 'B': 75.16, 'MIX': 4.24, 'UNK': 16.94</t>
+  </si>
+  <si>
+    <t>A': 48.19, 'B': 8.62, 'MIX': 1.09, 'UNK': 42.1</t>
+  </si>
+  <si>
+    <t>A': 24.76, 'B': 30.1, 'MIX': 7.36, 'UNK': 37.79</t>
+  </si>
+  <si>
+    <t>A': 39.33, 'B': 22.18, 'MIX': 3.77, 'UNK': 34.73</t>
+  </si>
+  <si>
+    <t>A': 24.77, 'B': 33.03, 'MIX': 9.17, 'UNK': 33.03</t>
+  </si>
+  <si>
+    <t>A': 28.26, 'B': 30.43, 'MIX': 4.35, 'UNK': 36.96</t>
+  </si>
+  <si>
+    <t>A': 50.08, 'B': 3.74, 'MIX': 1.19, 'UNK': 44.99</t>
+  </si>
+  <si>
+    <t>A': 43.04, 'B': 3.24, 'MIX': 7.77, 'UNK': 45.95</t>
+  </si>
+  <si>
+    <t>A': 31.31, 'B': 30.05, 'MIX': 7.83, 'UNK': 30.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +588,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -367,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -465,6 +727,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +774,7 @@
         <name val="Nunito"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -595,7 +882,7 @@
         <name val="Nunito"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -8082,13 +8369,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{ACADC0CF-87FF-416A-B324-D9B8F1FD6713}" name="MaCoCu-tr-en" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{639BF3DA-AEA9-4381-8871-12EC8F4CCD06}" name="MaCoCu-bg-en" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{ACADC0CF-87FF-416A-B324-D9B8F1FD6713}" name="MaCoCu-tr-en" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{639BF3DA-AEA9-4381-8871-12EC8F4CCD06}" name="MaCoCu-bg-en" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8393,7 +8680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1544E46A-78C9-4250-9787-2ED89FE698E6}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
@@ -9120,10 +9407,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F2D52-0DC5-49D1-854E-0E75D3795ABD}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9131,478 +9418,806 @@
     <col min="1" max="1" width="24.26953125" customWidth="1"/>
     <col min="2" max="2" width="20.453125" customWidth="1"/>
     <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="51" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="H1" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B2" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B3" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B4" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B5" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B6" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B7" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="B8" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C10" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D10" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E10" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F10" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G10" s="43" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="H10" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B11" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C21" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D21" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E21" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G21" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B22" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C22" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D22" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E22" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F22" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F23" t="s">
         <v>56</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C24" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E24" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F24" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B25" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C25" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D25" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E25" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F25" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G25" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F26" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G26" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C27" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D27" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E27" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F27" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G27" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C29" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F29" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G29" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B30" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C30" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D30" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E30" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F30" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G30" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B31" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C31" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D31" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E31" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F31" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G31" s="37" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B32" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D32" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E32" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F32" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G32" s="36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B33" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C33" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D33" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E33" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F33" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B34" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C34" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D34" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E34" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F34" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G34" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B35" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C35" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D35" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E35" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F35" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G35" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B36" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C36" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D36" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E36" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F36" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G36" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Tables-and-figures-of-results.xlsx
+++ b/Tables-and-figures-of-results.xlsx
@@ -1,57 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\Applying-GENRE-on-MaCoCu-bilingual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tajak\Google Drive\GitHub\Applying-GENRE-on-MaCoCu-bilingual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990CDFDE-85BB-47FF-91A1-F19CAEE1A4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA437B7B-287A-4FED-96A1-E9DD1167AECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison of datasets" sheetId="1" r:id="rId1"/>
-    <sheet name="Sizes of datasets" sheetId="5" r:id="rId2"/>
-    <sheet name="Length difference" sheetId="7" r:id="rId3"/>
-    <sheet name="English-dist" sheetId="8" r:id="rId4"/>
-    <sheet name="Distr in MK" sheetId="6" r:id="rId5"/>
-    <sheet name="Distr in IS" sheetId="2" r:id="rId6"/>
-    <sheet name="Distr in MT" sheetId="4" r:id="rId7"/>
-    <sheet name="Distr in SL" sheetId="3" r:id="rId8"/>
-    <sheet name="Distr in TR" sheetId="9" r:id="rId9"/>
-    <sheet name="Distr in BG" sheetId="10" r:id="rId10"/>
+    <sheet name="Comparison of distribution" sheetId="11" r:id="rId2"/>
+    <sheet name="Sizes of datasets" sheetId="5" r:id="rId3"/>
+    <sheet name="Length difference" sheetId="7" r:id="rId4"/>
+    <sheet name="English-dist" sheetId="8" r:id="rId5"/>
+    <sheet name="Distr in MK" sheetId="6" r:id="rId6"/>
+    <sheet name="Distr in IS" sheetId="2" r:id="rId7"/>
+    <sheet name="Distr in MT" sheetId="4" r:id="rId8"/>
+    <sheet name="Distr in SL" sheetId="3" r:id="rId9"/>
+    <sheet name="Distr in TR" sheetId="9" r:id="rId10"/>
+    <sheet name="Distr in BG" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Distr in BG'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Distr in IS'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Distr in MK'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Distr in MT'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Distr in SL'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Distr in TR'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Distr in BG'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Distr in IS'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Distr in MK'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Distr in MT'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Distr in SL'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Distr in TR'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="155">
   <si>
     <t>MaCoCu-sl-en</t>
   </si>
@@ -498,13 +490,31 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>News (46%)</t>
+  </si>
+  <si>
+    <t>Promotion (38%)</t>
+  </si>
+  <si>
+    <t>Promotion (39%)</t>
+  </si>
+  <si>
+    <t>Genre much more present than in others</t>
+  </si>
+  <si>
+    <t>Legal (28%), News (35%)</t>
+  </si>
+  <si>
+    <t>Promotion (32%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +605,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -629,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -752,6 +775,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8367,7 +8408,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:G10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="5"/>
@@ -8678,24 +8719,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1544E46A-78C9-4250-9787-2ED89FE698E6}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8718,7 +8759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -8741,7 +8782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
@@ -8764,7 +8805,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
@@ -8787,7 +8828,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="39" t="s">
         <v>11</v>
       </c>
@@ -8810,7 +8851,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
@@ -8833,7 +8874,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" ht="30.6">
       <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
@@ -8856,7 +8897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="39" t="s">
         <v>47</v>
       </c>
@@ -8879,7 +8920,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="39" t="s">
         <v>43</v>
       </c>
@@ -8902,89 +8943,110 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30.6">
+      <c r="A10" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="13"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8996,19 +9058,117 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="27" style="34" customWidth="1"/>
+    <col min="2" max="3" width="21.21875" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.277673</v>
+      </c>
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.16120699999999999</v>
+      </c>
+      <c r="C3" s="33"/>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="33">
+        <v>3.1772800000000004E-2</v>
+      </c>
+      <c r="C4" s="33"/>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.134713</v>
+      </c>
+      <c r="C5" s="33"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1.3107500000000001E-2</v>
+      </c>
+      <c r="C6" s="33"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0.37993199999999999</v>
+      </c>
+      <c r="C7" s="33"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="33">
+        <v>1.59458E-3</v>
+      </c>
+      <c r="C8" s="33"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">
+    <sortState ref="A2:D8">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1343A133-63B5-47F9-820E-915378298B5C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="29.36328125" style="34" customWidth="1"/>
+    <col min="1" max="2" width="29.33203125" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
         <v>62</v>
       </c>
@@ -9016,7 +9176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="32" t="s">
         <v>15</v>
       </c>
@@ -9024,7 +9184,7 @@
         <v>0.23852499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" s="32" t="s">
         <v>17</v>
       </c>
@@ -9032,7 +9192,7 @@
         <v>7.6639899999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" s="32" t="s">
         <v>19</v>
       </c>
@@ -9040,7 +9200,7 @@
         <v>3.0696599999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" s="32" t="s">
         <v>16</v>
       </c>
@@ -9048,7 +9208,7 @@
         <v>0.191916</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15">
       <c r="A6" s="32" t="s">
         <v>20</v>
       </c>
@@ -9056,7 +9216,7 @@
         <v>6.4397399999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15">
       <c r="A7" s="32" t="s">
         <v>18</v>
       </c>
@@ -9064,7 +9224,7 @@
         <v>0.39335199999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15">
       <c r="A8" s="32" t="s">
         <v>21</v>
       </c>
@@ -9080,6 +9240,213 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6537420D-1207-43EE-B3A1-8A7E1D1CB75B}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="52"/>
+      <c r="B1" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27.6">
+      <c r="A2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="53">
+        <v>0.26347700000000002</v>
+      </c>
+      <c r="C2" s="54">
+        <v>0.32245000000000001</v>
+      </c>
+      <c r="D2" s="54">
+        <v>0.192131</v>
+      </c>
+      <c r="E2" s="54">
+        <v>0.33137299999999997</v>
+      </c>
+      <c r="F2" s="55">
+        <v>0.277673</v>
+      </c>
+      <c r="G2" s="55">
+        <v>0.23852499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="53">
+        <v>3.5707200000000001E-2</v>
+      </c>
+      <c r="C3" s="54">
+        <v>0.15903400000000001</v>
+      </c>
+      <c r="D3" s="54">
+        <v>8.5563200000000006E-2</v>
+      </c>
+      <c r="E3" s="54">
+        <v>0.10716299999999999</v>
+      </c>
+      <c r="F3" s="55">
+        <v>0.16120699999999999</v>
+      </c>
+      <c r="G3" s="55">
+        <v>7.6639899999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="53">
+        <v>3.8541899999999997E-2</v>
+      </c>
+      <c r="C4" s="54">
+        <v>5.7736900000000001E-2</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0.27891100000000002</v>
+      </c>
+      <c r="E4" s="54">
+        <v>5.8135300000000001E-2</v>
+      </c>
+      <c r="F4" s="55">
+        <v>3.1772800000000004E-2</v>
+      </c>
+      <c r="G4" s="55">
+        <v>3.0696599999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="53">
+        <v>0.45877299999999999</v>
+      </c>
+      <c r="C5" s="54">
+        <v>0.25053700000000001</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0.34997200000000001</v>
+      </c>
+      <c r="E5" s="54">
+        <v>0.13347000000000001</v>
+      </c>
+      <c r="F5" s="55">
+        <v>0.134713</v>
+      </c>
+      <c r="G5" s="55">
+        <v>0.191916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.6">
+      <c r="A6" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="53">
+        <v>3.5458500000000004E-2</v>
+      </c>
+      <c r="C6" s="54">
+        <v>5.1121199999999999E-2</v>
+      </c>
+      <c r="D6" s="54">
+        <v>3.83608E-2</v>
+      </c>
+      <c r="E6" s="54">
+        <v>4.3516800000000001E-2</v>
+      </c>
+      <c r="F6" s="55">
+        <v>1.3107500000000001E-2</v>
+      </c>
+      <c r="G6" s="55">
+        <v>6.4397399999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="53">
+        <v>0.15615699999999999</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.155168</v>
+      </c>
+      <c r="D7" s="54">
+        <v>2.7507500000000001E-2</v>
+      </c>
+      <c r="E7" s="54">
+        <v>0.323959</v>
+      </c>
+      <c r="F7" s="55">
+        <v>0.37993199999999999</v>
+      </c>
+      <c r="G7" s="55">
+        <v>0.39335199999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="53">
+        <v>1.18858E-2</v>
+      </c>
+      <c r="C8" s="54">
+        <v>3.9522300000000002E-3</v>
+      </c>
+      <c r="D8" s="54">
+        <v>2.75543E-2</v>
+      </c>
+      <c r="E8" s="54">
+        <v>2.3835800000000002E-3</v>
+      </c>
+      <c r="F8" s="55">
+        <v>1.59458E-3</v>
+      </c>
+      <c r="G8" s="55">
+        <v>4.4723499999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C8F5A9-FD81-4CD5-A93B-E2A92366F94E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -9087,15 +9454,15 @@
       <selection activeCell="D7" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="31.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -9109,7 +9476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -9123,7 +9490,7 @@
         <v>91459</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -9137,7 +9504,7 @@
         <v>21376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -9151,7 +9518,7 @@
         <v>11639</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.6">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
@@ -9165,7 +9532,7 @@
         <v>20108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.6">
       <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
@@ -9179,7 +9546,7 @@
         <v>193782</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -9199,7 +9566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5045AAAD-7A1A-42C3-8572-22A393E9AA9D}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -9207,16 +9574,16 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
@@ -9239,7 +9606,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -9262,7 +9629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9285,7 +9652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -9308,7 +9675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -9331,7 +9698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -9354,7 +9721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -9377,7 +9744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -9405,26 +9772,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F2D52-0DC5-49D1-854E-0E75D3795ABD}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="41" t="s">
         <v>31</v>
       </c>
@@ -9450,7 +9817,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="45" t="s">
         <v>16</v>
       </c>
@@ -9476,7 +9843,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="45" t="s">
         <v>20</v>
       </c>
@@ -9502,7 +9869,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="45" t="s">
         <v>18</v>
       </c>
@@ -9528,7 +9895,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="45" t="s">
         <v>17</v>
       </c>
@@ -9554,7 +9921,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="45" t="s">
         <v>15</v>
       </c>
@@ -9580,7 +9947,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
@@ -9606,7 +9973,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="45" t="s">
         <v>21</v>
       </c>
@@ -9632,7 +9999,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="42"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -9644,7 +10011,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="43" t="s">
         <v>31</v>
       </c>
@@ -9670,7 +10037,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="44" t="s">
         <v>16</v>
       </c>
@@ -9696,7 +10063,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="44" t="s">
         <v>20</v>
       </c>
@@ -9722,7 +10089,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="44" t="s">
         <v>18</v>
       </c>
@@ -9748,7 +10115,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="44" t="s">
         <v>17</v>
       </c>
@@ -9774,7 +10141,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="44" t="s">
         <v>15</v>
       </c>
@@ -9800,7 +10167,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="44" t="s">
         <v>19</v>
       </c>
@@ -9826,7 +10193,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="A17" s="44" t="s">
         <v>21</v>
       </c>
@@ -9852,8 +10219,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1"/>
+    <row r="20" spans="1:8">
       <c r="A20" s="18" t="s">
         <v>31</v>
       </c>
@@ -9876,7 +10243,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -9899,7 +10266,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -9922,7 +10289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -9945,7 +10312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -9968,7 +10335,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -9991,7 +10358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -10014,7 +10381,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -10037,7 +10404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="A29" s="18" t="s">
         <v>31</v>
       </c>
@@ -10060,7 +10427,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -10083,7 +10450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -10106,7 +10473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -10129,7 +10496,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -10152,7 +10519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -10175,7 +10542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -10198,7 +10565,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -10227,21 +10594,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D9752B-20C6-4797-82E8-FBA3F0E6167C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -10249,7 +10616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -10258,7 +10625,7 @@
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
@@ -10267,7 +10634,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
@@ -10276,7 +10643,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
@@ -10285,7 +10652,7 @@
       </c>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -10294,7 +10661,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -10303,7 +10670,7 @@
       </c>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -10314,97 +10681,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00D9752B-20C6-4797-82E8-FBA3F0E6167C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB718D3-C404-4D39-8DA3-A6344E204ED8}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.32245000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.15903400000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
-        <v>5.7736900000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.25053700000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6">
-        <v>5.1121199999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.155168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3.9522300000000002E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{CBB718D3-C404-4D39-8DA3-A6344E204ED8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
+    <sortState ref="A2:C8">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -10414,86 +10691,87 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB718D3-C404-4D39-8DA3-A6344E204ED8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6">
-        <v>0.192131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.32245000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>8.5563200000000006E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.15903400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="6">
-        <v>0.27891100000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.7736900000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6">
-        <v>0.34997200000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23" x14ac:dyDescent="0.35">
+        <v>0.25053700000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>3.83608E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5.1121199999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>2.7507500000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="23" x14ac:dyDescent="0.35">
+        <v>0.155168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="6">
-        <v>2.75543E-2</v>
+        <v>3.9522300000000002E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
+  <autoFilter ref="A1:B1" xr:uid="{CBB718D3-C404-4D39-8DA3-A6344E204ED8}">
+    <sortState ref="A2:B8">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -10503,86 +10781,86 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AA5A83-BD6D-41DA-9982-1ACA03113A1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="22.8">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6">
-        <v>0.33137299999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.192131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>0.10716299999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8.5563200000000006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="6">
-        <v>5.8135300000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.27891100000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6">
-        <v>0.13347000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23" x14ac:dyDescent="0.35">
+        <v>0.34997200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22.8">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>4.3516800000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.83608E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>0.323959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="23" x14ac:dyDescent="0.35">
+        <v>2.7507500000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="6">
-        <v>2.3835800000000002E-3</v>
+        <v>2.75543E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{99AA5A83-BD6D-41DA-9982-1ACA03113A1A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
+  <autoFilter ref="A1:B1" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
+    <sortState ref="A2:B8">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -10592,95 +10870,86 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AA5A83-BD6D-41DA-9982-1ACA03113A1A}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27" style="34" customWidth="1"/>
-    <col min="2" max="3" width="21.26953125" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="30"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="22.8">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="33">
-        <v>0.277673</v>
-      </c>
-      <c r="C2" s="33"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="B2" s="6">
+        <v>0.33137299999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="33">
-        <v>0.16120699999999999</v>
-      </c>
-      <c r="C3" s="33"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+      <c r="B3" s="6">
+        <v>0.10716299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="33">
-        <v>3.1772800000000004E-2</v>
-      </c>
-      <c r="C4" s="33"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+      <c r="B4" s="6">
+        <v>5.8135300000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="33">
-        <v>0.134713</v>
-      </c>
-      <c r="C5" s="33"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="B5" s="6">
+        <v>0.13347000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="22.8">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33">
-        <v>1.3107500000000001E-2</v>
-      </c>
-      <c r="C6" s="33"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="B6" s="6">
+        <v>4.3516800000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="33">
-        <v>0.37993199999999999</v>
-      </c>
-      <c r="C7" s="33"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="B7" s="6">
+        <v>0.323959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33">
-        <v>1.59458E-3</v>
-      </c>
-      <c r="C8" s="33"/>
+      <c r="B8" s="6">
+        <v>2.3835800000000002E-3</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+  <autoFilter ref="A1:B1" xr:uid="{99AA5A83-BD6D-41DA-9982-1ACA03113A1A}">
+    <sortState ref="A2:B8">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/Tables-and-figures-of-results.xlsx
+++ b/Tables-and-figures-of-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tajak\Google Drive\GitHub\Applying-GENRE-on-MaCoCu-bilingual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\Applying-GENRE-on-MaCoCu-bilingual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA437B7B-287A-4FED-96A1-E9DD1167AECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A9461-8AE7-43D5-8013-8A6309AC7221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison of datasets" sheetId="1" r:id="rId1"/>
@@ -18,32 +18,43 @@
     <sheet name="Sizes of datasets" sheetId="5" r:id="rId3"/>
     <sheet name="Length difference" sheetId="7" r:id="rId4"/>
     <sheet name="English-dist" sheetId="8" r:id="rId5"/>
-    <sheet name="Distr in MK" sheetId="6" r:id="rId6"/>
-    <sheet name="Distr in IS" sheetId="2" r:id="rId7"/>
-    <sheet name="Distr in MT" sheetId="4" r:id="rId8"/>
-    <sheet name="Distr in SL" sheetId="3" r:id="rId9"/>
-    <sheet name="Distr in TR" sheetId="9" r:id="rId10"/>
-    <sheet name="Distr in BG" sheetId="10" r:id="rId11"/>
+    <sheet name="Distr in HR" sheetId="12" r:id="rId6"/>
+    <sheet name="Distr in MK" sheetId="6" r:id="rId7"/>
+    <sheet name="Distr in IS" sheetId="2" r:id="rId8"/>
+    <sheet name="Distr in MT" sheetId="4" r:id="rId9"/>
+    <sheet name="Distr in SL" sheetId="3" r:id="rId10"/>
+    <sheet name="Distr in TR" sheetId="9" r:id="rId11"/>
+    <sheet name="Distr in BG" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Distr in BG'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Distr in IS'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Distr in MK'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Distr in MT'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Distr in SL'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Distr in TR'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Distr in BG'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Distr in HR'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Distr in IS'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Distr in MK'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Distr in MT'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Distr in SL'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Distr in TR'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="174">
   <si>
     <t>MaCoCu-sl-en</t>
   </si>
@@ -201,9 +212,6 @@
     <t>B: 12%, A: 34%</t>
   </si>
   <si>
-    <t>100% UNK (??)</t>
-  </si>
-  <si>
     <t>booking.com (7%)</t>
   </si>
   <si>
@@ -508,13 +516,73 @@
   </si>
   <si>
     <t>Promotion (32%)</t>
+  </si>
+  <si>
+    <t>MaCoCu-hr-en</t>
+  </si>
+  <si>
+    <t>B: 34%, A: 26%</t>
+  </si>
+  <si>
+    <t>B: 40%, A: 28%</t>
+  </si>
+  <si>
+    <t>100% UNK</t>
+  </si>
+  <si>
+    <t>support.apple.com (2%)</t>
+  </si>
+  <si>
+    <t>MaCoCu-hr</t>
+  </si>
+  <si>
+    <t>{'A': 3070, 'B': 6671, 'MIX': 752, 'UNK': 5160}</t>
+  </si>
+  <si>
+    <t>{'A': 1190, 'B': 1058, 'MIX': 304, 'UNK': 1144}</t>
+  </si>
+  <si>
+    <t>{'A': 8808, 'B': 7088, 'MIX': 2364, 'UNK': 8530}</t>
+  </si>
+  <si>
+    <t>{'A': 3738, 'B': 2515, 'MIX': 474, 'UNK': 4375}</t>
+  </si>
+  <si>
+    <t>{'A': 6596, 'B': 10435, 'MIX': 1950, 'UNK': 9977}</t>
+  </si>
+  <si>
+    <t>{'A': 502, 'B': 3112, 'MIX': 192, 'UNK': 1045}</t>
+  </si>
+  <si>
+    <t>{'A': 203, 'B': 95, 'MIX': 16, 'UNK': 255}</t>
+  </si>
+  <si>
+    <t>{'A': 19.61, 'B': 42.62, 'MIX': 4.8, 'UNK': 32.96}</t>
+  </si>
+  <si>
+    <t>{'A': 32.2, 'B': 28.63, 'MIX': 8.23, 'UNK': 30.95}</t>
+  </si>
+  <si>
+    <t>{'A': 32.88, 'B': 26.46, 'MIX': 8.82, 'UNK': 31.84}</t>
+  </si>
+  <si>
+    <t>{'A': 33.67, 'B': 22.65, 'MIX': 4.27, 'UNK': 39.41}</t>
+  </si>
+  <si>
+    <t>{'A': 22.78, 'B': 36.03, 'MIX': 6.73, 'UNK': 34.45}</t>
+  </si>
+  <si>
+    <t>{'A': 10.35, 'B': 64.15, 'MIX': 3.96, 'UNK': 21.54}</t>
+  </si>
+  <si>
+    <t>{'A': 35.68, 'B': 16.7, 'MIX': 2.81, 'UNK': 44.82}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +686,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -652,7 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -793,12 +874,42 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Nunito"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -995,6 +1106,1546 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Distribution of Genres in MaCoCu parallel corpora</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-mk-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Information/Explanation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instruction</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Opinion/Argumentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Promotion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prose/Lyrical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison of distribution'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.26347700000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5707200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8541899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45877299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5458500000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15615699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.18858E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D36-4F03-9A50-601739BA6785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-is-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Information/Explanation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instruction</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Opinion/Argumentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Promotion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prose/Lyrical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison of distribution'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.32245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15903400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7736900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25053700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1121199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.155168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9522300000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D36-4F03-9A50-601739BA6785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-mt-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Information/Explanation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instruction</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Opinion/Argumentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Promotion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prose/Lyrical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison of distribution'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.192131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5563200000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27891100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34997200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.83608E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7507500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.75543E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D36-4F03-9A50-601739BA6785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-sl-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Information/Explanation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instruction</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Opinion/Argumentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Promotion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prose/Lyrical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison of distribution'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.33137299999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10716299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8135300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13347000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3516800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.323959</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3835800000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0D36-4F03-9A50-601739BA6785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-tr-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Information/Explanation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instruction</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Opinion/Argumentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Promotion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prose/Lyrical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison of distribution'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.277673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16120699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1772800000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.134713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3107500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37993199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.59458E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0D36-4F03-9A50-601739BA6785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-bg-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Information/Explanation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instruction</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Opinion/Argumentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Promotion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prose/Lyrical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison of distribution'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.23852499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6639899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0696599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.191916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4397399999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39335199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4723499999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0D36-4F03-9A50-601739BA6785}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-hr-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison of distribution'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Information/Explanation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instruction</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Opinion/Argumentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Promotion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prose/Lyrical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison of distribution'!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.31607000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12117599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2947499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.170849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0340999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29240700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2104999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C253-470E-8842-B7B45570D406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1379622048"/>
+        <c:axId val="1342736272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1379622048"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="###,000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342736272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1342736272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1379622048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MaCoCu-hr-en</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21671407816619734"/>
+          <c:y val="2.0833333333333332E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Distr in HR'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1EC6-4D14-81B1-4CFEDDBC4866}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1EC6-4D14-81B1-4CFEDDBC4866}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1EC6-4D14-81B1-4CFEDDBC4866}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1EC6-4D14-81B1-4CFEDDBC4866}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1EC6-4D14-81B1-4CFEDDBC4866}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1EC6-4D14-81B1-4CFEDDBC4866}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1EC6-4D14-81B1-4CFEDDBC4866}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Nunito" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SI"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Distr in HR'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Information/Explanation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instruction</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Opinion/Argumentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Promotion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prose/Lyrical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Distr in HR'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.31607000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12117599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2947499999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.170849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0340999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29240700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2104999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-1EC6-4D14-81B1-4CFEDDBC4866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1610,7 +3261,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2215,7 +3866,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2886,7 +4537,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3557,7 +5208,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4228,7 +5879,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5139,7 +6790,592 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5641,7 +7877,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6143,7 +8379,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6645,7 +8881,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7147,7 +9383,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7649,7 +9885,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8151,7 +10387,593 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DEC50B-AD68-4314-9F62-84F67AEDD145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE459B94-33BE-46C2-8EC0-4E0864247D13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8194,7 +11016,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8235,7 +11057,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8278,7 +11100,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8321,7 +11143,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8364,7 +11186,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8408,15 +11230,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:G10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{ACADC0CF-87FF-416A-B324-D9B8F1FD6713}" name="MaCoCu-tr-en" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{639BF3DA-AEA9-4381-8871-12EC8F4CCD06}" name="MaCoCu-bg-en" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:H10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{ACADC0CF-87FF-416A-B324-D9B8F1FD6713}" name="MaCoCu-tr-en" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{639BF3DA-AEA9-4381-8871-12EC8F4CCD06}" name="MaCoCu-bg-en" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{ED6F0696-ACE3-4243-99D6-5AA0897BABB5}" name="MaCoCu-hr-en" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8719,24 +11542,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1544E46A-78C9-4250-9787-2ED89FE698E6}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8756,10 +11580,13 @@
         <v>50</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
@@ -8779,10 +11606,13 @@
         <v>51</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
@@ -8799,13 +11629,16 @@
         <v>25</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
@@ -8827,8 +11660,11 @@
       <c r="G4" s="23">
         <v>0.46</v>
       </c>
+      <c r="H4" s="23">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A5" s="39" t="s">
         <v>11</v>
       </c>
@@ -8850,8 +11686,11 @@
       <c r="G5" s="22">
         <v>170</v>
       </c>
+      <c r="H5" s="22">
+        <v>172</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
@@ -8873,8 +11712,11 @@
       <c r="G6" s="22">
         <v>0.91</v>
       </c>
+      <c r="H6" s="22">
+        <v>0.92</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="30.6">
+    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
@@ -8896,8 +11738,11 @@
       <c r="G7" s="22">
         <v>7</v>
       </c>
+      <c r="H7" s="22">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6">
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A8" s="39" t="s">
         <v>47</v>
       </c>
@@ -8919,8 +11764,11 @@
       <c r="G8" s="23">
         <v>0.25</v>
       </c>
+      <c r="H8" s="23">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A9" s="39" t="s">
         <v>43</v>
       </c>
@@ -8937,113 +11785,117 @@
         <v>49</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30.6">
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.5">
       <c r="A10" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="G10" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>151</v>
-      </c>
+      <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="60"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="60"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="60"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="60"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
@@ -9058,95 +11910,86 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AA5A83-BD6D-41DA-9982-1ACA03113A1A}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27" style="34" customWidth="1"/>
-    <col min="2" max="3" width="21.21875" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="31"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="30"/>
     </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="33">
-        <v>0.277673</v>
-      </c>
-      <c r="C2" s="33"/>
+      <c r="B2" s="6">
+        <v>0.33137299999999997</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="33">
-        <v>0.16120699999999999</v>
-      </c>
-      <c r="C3" s="33"/>
+      <c r="B3" s="6">
+        <v>0.10716299999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="33">
-        <v>3.1772800000000004E-2</v>
-      </c>
-      <c r="C4" s="33"/>
+      <c r="B4" s="6">
+        <v>5.8135300000000001E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="33">
-        <v>0.134713</v>
-      </c>
-      <c r="C5" s="33"/>
+      <c r="B5" s="6">
+        <v>0.13347000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:2" ht="23" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33">
-        <v>1.3107500000000001E-2</v>
-      </c>
-      <c r="C6" s="33"/>
+      <c r="B6" s="6">
+        <v>4.3516800000000001E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="33">
-        <v>0.37993199999999999</v>
-      </c>
-      <c r="C7" s="33"/>
+      <c r="B7" s="6">
+        <v>0.323959</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33">
-        <v>1.59458E-3</v>
-      </c>
-      <c r="C8" s="33"/>
+      <c r="B8" s="6">
+        <v>2.3835800000000002E-3</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">
-    <sortState ref="A2:D8">
+  <autoFilter ref="A1:B1" xr:uid="{99AA5A83-BD6D-41DA-9982-1ACA03113A1A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -9156,6 +11999,104 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27" style="34" customWidth="1"/>
+    <col min="2" max="3" width="21.1796875" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.277673</v>
+      </c>
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.16120699999999999</v>
+      </c>
+      <c r="C3" s="33"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="33">
+        <v>3.1772800000000004E-2</v>
+      </c>
+      <c r="C4" s="33"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.134713</v>
+      </c>
+      <c r="C5" s="33"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="33">
+        <v>1.3107500000000001E-2</v>
+      </c>
+      <c r="C6" s="33"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0.37993199999999999</v>
+      </c>
+      <c r="C7" s="33"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="33">
+        <v>1.59458E-3</v>
+      </c>
+      <c r="C8" s="33"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1343A133-63B5-47F9-820E-915378298B5C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -9163,20 +12104,20 @@
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="29.33203125" style="34" customWidth="1"/>
+    <col min="1" max="2" width="29.36328125" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>15</v>
       </c>
@@ -9184,7 +12125,7 @@
         <v>0.23852499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>17</v>
       </c>
@@ -9192,7 +12133,7 @@
         <v>7.6639899999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>19</v>
       </c>
@@ -9200,7 +12141,7 @@
         <v>3.0696599999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>16</v>
       </c>
@@ -9208,7 +12149,7 @@
         <v>0.191916</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>20</v>
       </c>
@@ -9216,7 +12157,7 @@
         <v>6.4397399999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>18</v>
       </c>
@@ -9224,7 +12165,7 @@
         <v>0.39335199999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>21</v>
       </c>
@@ -9241,24 +12182,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6537420D-1207-43EE-B3A1-8A7E1D1CB75B}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="52"/>
       <c r="B1" s="56" t="s">
         <v>23</v>
@@ -9276,10 +12217,13 @@
         <v>50</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27.6">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>15</v>
       </c>
@@ -9301,8 +12245,11 @@
       <c r="G2" s="55">
         <v>0.23852499999999999</v>
       </c>
+      <c r="H2" s="33">
+        <v>0.31607000000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="57" t="s">
         <v>17</v>
       </c>
@@ -9324,8 +12271,11 @@
       <c r="G3" s="55">
         <v>7.6639899999999997E-2</v>
       </c>
+      <c r="H3" s="33">
+        <v>0.12117599999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>19</v>
       </c>
@@ -9347,8 +12297,11 @@
       <c r="G4" s="55">
         <v>3.0696599999999997E-2</v>
       </c>
+      <c r="H4" s="33">
+        <v>5.2947499999999995E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>16</v>
       </c>
@@ -9370,8 +12323,11 @@
       <c r="G5" s="55">
         <v>0.191916</v>
       </c>
+      <c r="H5" s="33">
+        <v>0.170849</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
         <v>20</v>
       </c>
@@ -9393,8 +12349,11 @@
       <c r="G6" s="55">
         <v>6.4397399999999994E-2</v>
       </c>
+      <c r="H6" s="33">
+        <v>4.0340999999999995E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
         <v>18</v>
       </c>
@@ -9416,8 +12375,11 @@
       <c r="G7" s="55">
         <v>0.39335199999999998</v>
       </c>
+      <c r="H7" s="33">
+        <v>0.29240700000000003</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
         <v>21</v>
       </c>
@@ -9438,31 +12400,35 @@
       </c>
       <c r="G8" s="55">
         <v>4.4723499999999999E-3</v>
+      </c>
+      <c r="H8" s="33">
+        <v>6.2104999999999999E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C8F5A9-FD81-4CD5-A93B-E2A92366F94E}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.2">
+    <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -9476,7 +12442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -9490,7 +12456,7 @@
         <v>91459</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -9504,7 +12470,7 @@
         <v>21376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -9518,7 +12484,7 @@
         <v>11639</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
@@ -9532,7 +12498,7 @@
         <v>20108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
@@ -9546,9 +12512,9 @@
         <v>193782</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="26">
         <v>287456</v>
@@ -9557,33 +12523,47 @@
         <v>107404</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="26">
+        <v>324666</v>
+      </c>
+      <c r="C8" s="26">
+        <v>101752</v>
+      </c>
+      <c r="D8" s="26">
+        <v>91619</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5045AAAD-7A1A-42C3-8572-22A393E9AA9D}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
@@ -9600,13 +12580,16 @@
         <v>41</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -9628,8 +12611,11 @@
       <c r="G2" s="35" t="s">
         <v>34</v>
       </c>
+      <c r="H2" s="35" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9651,8 +12637,11 @@
       <c r="G3" s="21" t="s">
         <v>33</v>
       </c>
+      <c r="H3" s="35" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -9674,8 +12663,11 @@
       <c r="G4" s="19" t="s">
         <v>32</v>
       </c>
+      <c r="H4" s="35" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -9697,8 +12689,11 @@
       <c r="G5" s="20" t="s">
         <v>35</v>
       </c>
+      <c r="H5" s="35" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -9720,8 +12715,11 @@
       <c r="G6" s="20" t="s">
         <v>34</v>
       </c>
+      <c r="H6" s="35" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -9743,8 +12741,11 @@
       <c r="G7" s="35" t="s">
         <v>35</v>
       </c>
+      <c r="H7" s="35" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -9765,6 +12766,9 @@
       </c>
       <c r="G8" s="35" t="s">
         <v>35</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -9776,22 +12780,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F2D52-0DC5-49D1-854E-0E75D3795ABD}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>31</v>
       </c>
@@ -9808,198 +12813,198 @@
         <v>41</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>148</v>
+        <v>61</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>148</v>
+      <c r="H2" s="45" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="D3" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="F3" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="G3" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>148</v>
+      <c r="H3" s="45" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="D4" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="F4" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="G4" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>148</v>
+      <c r="H4" s="45" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="D5" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="F5" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="G5" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>148</v>
+      <c r="H5" s="45" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="D6" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="F6" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="G6" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>148</v>
+      <c r="H6" s="45" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="D7" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="F7" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="G7" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>148</v>
+      <c r="H7" s="45" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="D8" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="F8" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="G8" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>148</v>
+      <c r="H8" s="45" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="42"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -10007,11 +13012,11 @@
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="45"/>
-      <c r="H9" s="41" t="s">
-        <v>148</v>
+      <c r="H9" s="51" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="43" t="s">
         <v>31</v>
       </c>
@@ -10028,199 +13033,199 @@
         <v>41</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>148</v>
+        <v>61</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="D11" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="E11" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="F11" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="G11" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>148</v>
+      <c r="H11" s="45" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="D12" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="E12" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="F12" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="G12" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>148</v>
+      <c r="H12" s="45" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="D13" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="E13" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="F13" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="G13" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>148</v>
+      <c r="H13" s="45" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="D14" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="E14" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="F14" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="G14" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>148</v>
+      <c r="H14" s="45" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="D15" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="E15" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="F15" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="G15" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>148</v>
+      <c r="H15" s="45" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="D16" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="E16" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="F16" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="G16" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>148</v>
+      <c r="H16" s="45" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="D17" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="E17" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="F17" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="G17" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>148</v>
+      <c r="H17" s="45" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1"/>
-    <row r="20" spans="1:8">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>31</v>
       </c>
@@ -10237,13 +13242,13 @@
         <v>41</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -10251,27 +13256,27 @@
         <v>36</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>36</v>
@@ -10289,7 +13294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -10306,13 +13311,13 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -10335,7 +13340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -10358,30 +13363,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -10401,10 +13406,10 @@
         <v>39</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>31</v>
       </c>
@@ -10421,13 +13426,13 @@
         <v>41</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -10435,22 +13440,22 @@
         <v>36</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -10470,10 +13475,10 @@
         <v>36</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -10496,7 +13501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -10513,13 +13518,13 @@
         <v>37</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -10542,30 +13547,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="37" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -10595,6 +13600,106 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965A385C-5517-4261-9835-AE5C21E0DD22}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.54296875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.31607000000000002</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="33">
+        <v>0.12117599999999999</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="33">
+        <v>5.2947499999999995E-2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.170849</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="33">
+        <v>4.0340999999999995E-2</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="33">
+        <v>0.29240700000000003</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="33">
+        <v>6.2104999999999999E-3</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D9752B-20C6-4797-82E8-FBA3F0E6167C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -10602,13 +13707,13 @@
       <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="16"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -10616,7 +13721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
@@ -10625,7 +13730,7 @@
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
@@ -10634,7 +13739,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
@@ -10643,7 +13748,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
@@ -10652,7 +13757,7 @@
       </c>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -10661,7 +13766,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -10670,7 +13775,7 @@
       </c>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -10681,97 +13786,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00D9752B-20C6-4797-82E8-FBA3F0E6167C}">
-    <sortState ref="A2:C8">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB718D3-C404-4D39-8DA3-A6344E204ED8}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.32245000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.15903400000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
-        <v>5.7736900000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.25053700000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6">
-        <v>5.1121199999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.155168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3.9522300000000002E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{CBB718D3-C404-4D39-8DA3-A6344E204ED8}">
-    <sortState ref="A2:B8">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -10781,86 +13796,87 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB718D3-C404-4D39-8DA3-A6344E204ED8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="22.8">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6">
-        <v>0.192131</v>
+        <v>0.32245000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>8.5563200000000006E-2</v>
+        <v>0.15903400000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="6">
-        <v>0.27891100000000002</v>
+        <v>5.7736900000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6">
-        <v>0.34997200000000001</v>
+        <v>0.25053700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="22.8">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>3.83608E-2</v>
+        <v>5.1121199999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>2.7507500000000001E-2</v>
+        <v>0.155168</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="6">
-        <v>2.75543E-2</v>
+        <v>3.9522300000000002E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
-    <sortState ref="A2:B8">
+  <autoFilter ref="A1:B1" xr:uid="{CBB718D3-C404-4D39-8DA3-A6344E204ED8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -10870,86 +13886,86 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AA5A83-BD6D-41DA-9982-1ACA03113A1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="22.8">
+    <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6">
-        <v>0.33137299999999997</v>
+        <v>0.192131</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>0.10716299999999999</v>
+        <v>8.5563200000000006E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="6">
-        <v>5.8135300000000001E-2</v>
+        <v>0.27891100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6">
-        <v>0.13347000000000001</v>
+        <v>0.34997200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="22.8">
+    <row r="6" spans="1:2" ht="23" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>4.3516800000000001E-2</v>
+        <v>3.83608E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>0.323959</v>
+        <v>2.7507500000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="6">
-        <v>2.3835800000000002E-3</v>
+        <v>2.75543E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{99AA5A83-BD6D-41DA-9982-1ACA03113A1A}">
-    <sortState ref="A2:B8">
+  <autoFilter ref="A1:B1" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/Tables-and-figures-of-results.xlsx
+++ b/Tables-and-figures-of-results.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\GitHub\Applying-GENRE-on-MaCoCu-bilingual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101A9461-8AE7-43D5-8013-8A6309AC7221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B40D35D-0537-40E5-9BD2-44C0B77CC69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BC1F8B3F-D1EE-42C3-9CDD-4A0C35F3AB58}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison of datasets" sheetId="1" r:id="rId1"/>
-    <sheet name="Comparison of distribution" sheetId="11" r:id="rId2"/>
-    <sheet name="Sizes of datasets" sheetId="5" r:id="rId3"/>
-    <sheet name="Length difference" sheetId="7" r:id="rId4"/>
-    <sheet name="English-dist" sheetId="8" r:id="rId5"/>
-    <sheet name="Distr in HR" sheetId="12" r:id="rId6"/>
-    <sheet name="Distr in MK" sheetId="6" r:id="rId7"/>
-    <sheet name="Distr in IS" sheetId="2" r:id="rId8"/>
-    <sheet name="Distr in MT" sheetId="4" r:id="rId9"/>
-    <sheet name="Distr in SL" sheetId="3" r:id="rId10"/>
-    <sheet name="Distr in TR" sheetId="9" r:id="rId11"/>
-    <sheet name="Distr in BG" sheetId="10" r:id="rId12"/>
+    <sheet name="English varieties (doc level)" sheetId="14" r:id="rId2"/>
+    <sheet name="Comparison of distribution" sheetId="11" r:id="rId3"/>
+    <sheet name="Sizes of datasets" sheetId="5" r:id="rId4"/>
+    <sheet name="Length difference" sheetId="7" r:id="rId5"/>
+    <sheet name="English-dist" sheetId="8" r:id="rId6"/>
+    <sheet name="Distr in HR" sheetId="12" r:id="rId7"/>
+    <sheet name="Distr in MK" sheetId="6" r:id="rId8"/>
+    <sheet name="Distr in IS" sheetId="2" r:id="rId9"/>
+    <sheet name="Distr in MT" sheetId="4" r:id="rId10"/>
+    <sheet name="Distr in SL" sheetId="3" r:id="rId11"/>
+    <sheet name="Distr in TR" sheetId="9" r:id="rId12"/>
+    <sheet name="Distr in BG" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Distr in BG'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Distr in HR'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Distr in IS'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Distr in MK'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Distr in MT'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Distr in SL'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Distr in TR'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Distr in BG'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Distr in HR'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Distr in IS'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Distr in MK'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Distr in MT'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Distr in SL'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Distr in TR'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="199">
   <si>
     <t>MaCoCu-sl-en</t>
   </si>
@@ -576,12 +577,90 @@
   </si>
   <si>
     <t>{'A': 35.68, 'B': 16.7, 'MIX': 2.81, 'UNK': 44.82}</t>
+  </si>
+  <si>
+    <t>Texts with genre labels (%)</t>
+  </si>
+  <si>
+    <t>Analysed texts (%)</t>
+  </si>
+  <si>
+    <t>286k</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>40k</t>
+  </si>
+  <si>
+    <t>55k</t>
+  </si>
+  <si>
+    <t>796k</t>
+  </si>
+  <si>
+    <t>287k</t>
+  </si>
+  <si>
+    <t>325k</t>
+  </si>
+  <si>
+    <t>102k</t>
+  </si>
+  <si>
+    <t>24k</t>
+  </si>
+  <si>
+    <t>13k</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>213k</t>
+  </si>
+  <si>
+    <t>107k</t>
+  </si>
+  <si>
+    <t>91k</t>
+  </si>
+  <si>
+    <t>21k</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>194k</t>
+  </si>
+  <si>
+    <t>86k</t>
+  </si>
+  <si>
+    <t>92k</t>
+  </si>
+  <si>
+    <t>British</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Unknown/Mix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,7 +779,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,8 +798,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -728,17 +813,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -886,12 +1004,177 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Nunito"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1054,24 +1337,6 @@
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Nunito"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1086,6 +1351,1220 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>British</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and American English in MaCoCu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'English varieties (doc level)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>British</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'English varieties (doc level)'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-sl-en</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MaCoCu-is-en</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaCoCu-mt-en</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MaCoCu-mk-en</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MaCoCu-tr-en</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MaCoCu-bg-en</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MaCoCu-hr-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'English varieties (doc level)'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBB3-4E22-BF40-3799D3D3674A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'English varieties (doc level)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>American</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'English varieties (doc level)'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-sl-en</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MaCoCu-is-en</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaCoCu-mt-en</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MaCoCu-mk-en</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MaCoCu-tr-en</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MaCoCu-bg-en</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MaCoCu-hr-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'English varieties (doc level)'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EBB3-4E22-BF40-3799D3D3674A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'English varieties (doc level)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unknown/Mix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'English varieties (doc level)'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-sl-en</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MaCoCu-is-en</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaCoCu-mt-en</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MaCoCu-mk-en</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MaCoCu-tr-en</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MaCoCu-bg-en</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MaCoCu-hr-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'English varieties (doc level)'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39999999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EBB3-4E22-BF40-3799D3D3674A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1457520031"/>
+        <c:axId val="1457513791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1457520031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457513791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1457513791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457520031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MaCoCu-bg-en</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Distr in BG'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-4A32-40F5-A670-7D6DB55CE4D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5945330296127606E-2"/>
+                  <c:y val="-1.909700161202999E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4A32-40F5-A670-7D6DB55CE4D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.644646924829157E-2"/>
+                  <c:y val="-0.22083333333333333"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-4A32-40F5-A670-7D6DB55CE4D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.3394077448747156E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-4A32-40F5-A670-7D6DB55CE4D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Nunito" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-SI"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Distr in BG'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Information/Explanation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Instruction</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Legal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>News</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Opinion/Argumentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Promotion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Prose/Lyrical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Distr in BG'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.23852499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6639899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0696599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.191916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4397399999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39335199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4723499999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-4A32-40F5-A670-7D6DB55CE4D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1981,7 +3460,521 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sizes of datasets'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original no. of texts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sizes of datasets'!$A$22:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-sl-en</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MaCoCu-mt-en</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaCoCu-is-en</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MaCoCu-mk-en</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MaCoCu-tr-en</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MaCoCu-bg-en</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MaCoCu-hr-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sizes of datasets'!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>285892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40340</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>796473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>287456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>324666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40DF-4CA0-88FC-D11D3F3256E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sizes of datasets'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pre-processed dataset (texts)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sizes of datasets'!$A$22:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-sl-en</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MaCoCu-mt-en</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaCoCu-is-en</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MaCoCu-mk-en</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MaCoCu-tr-en</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MaCoCu-bg-en</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MaCoCu-hr-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sizes of datasets'!$C$22:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>101807</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40DF-4CA0-88FC-D11D3F3256E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sizes of datasets'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Texts with genre labels</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sizes of datasets'!$A$22:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MaCoCu-sl-en</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MaCoCu-mt-en</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MaCoCu-is-en</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MaCoCu-mk-en</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MaCoCu-tr-en</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MaCoCu-bg-en</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MaCoCu-hr-en</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sizes of datasets'!$D$22:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>91459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>193782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-40DF-4CA0-88FC-D11D3F3256E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1099839151"/>
+        <c:axId val="1457513375"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1099839151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457513375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1457513375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1099839151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2625,7 +4618,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3261,7 +5254,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3866,7 +5859,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4537,7 +6530,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5208,7 +7201,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5879,678 +7872,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>MaCoCu-bg-en</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-SI"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Distr in BG'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4A32-40F5-A670-7D6DB55CE4D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4A32-40F5-A670-7D6DB55CE4D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-4A32-40F5-A670-7D6DB55CE4D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-4A32-40F5-A670-7D6DB55CE4D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-4A32-40F5-A670-7D6DB55CE4D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-4A32-40F5-A670-7D6DB55CE4D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-4A32-40F5-A670-7D6DB55CE4D0}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.5945330296127606E-2"/>
-                  <c:y val="-1.909700161202999E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-4A32-40F5-A670-7D6DB55CE4D0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.644646924829157E-2"/>
-                  <c:y val="-0.22083333333333333"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-4A32-40F5-A670-7D6DB55CE4D0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.3394077448747156E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-4A32-40F5-A670-7D6DB55CE4D0}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Nunito" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-SI"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Distr in BG'!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Information/Explanation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Instruction</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Legal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>News</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Opinion/Argumentation</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Promotion</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Prose/Lyrical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Distr in BG'!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.23852499999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.6639899999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0696599999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.191916</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4397399999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.39335199999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4723499999999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-4A32-40F5-A670-7D6DB55CE4D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-SI"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6870,8 +8232,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7075,23 +8477,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7196,8 +8597,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7329,20 +8730,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7375,7 +8775,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7877,7 +9277,1015 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8379,7 +10787,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8881,7 +11289,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9383,7 +11791,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9885,7 +12293,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10387,7 +12795,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10890,6 +13298,90 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8632EFBA-EE5D-4309-A83E-0BCEE17A13A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B163C3B-ADAA-4DFD-B7DC-6EB04C1D0E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10927,10 +13419,539 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2425394-77FE-420B-AF4D-0CAFD93A54E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5988050"/>
+          <a:ext cx="1771650" cy="1365250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA71E99-FA2D-44E6-A11D-0B551BD663CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1758950" y="5988050"/>
+          <a:ext cx="1771650" cy="1365250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD74774F-7535-492A-969E-F2CF7F54753E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2863850" y="5988050"/>
+          <a:ext cx="1771650" cy="1289050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31794615-F6EC-40E0-9881-805F4CD48BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7283450"/>
+          <a:ext cx="1771650" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C842DD-EE52-4460-B221-E6B981811144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1758950" y="7283450"/>
+          <a:ext cx="1771650" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8D4D65-9913-41BC-B8F4-1150CB0B4CE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2863850" y="7283450"/>
+          <a:ext cx="1771650" cy="1536700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC25E5B-F828-4853-B90F-472EA3AA172B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8947150"/>
+          <a:ext cx="1676400" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B3CA19-DA74-43F3-8C93-318506554531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1758950" y="8947150"/>
+          <a:ext cx="1803400" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1216025</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7BE5EFA-47E1-4726-9527-1A55528AC36A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10973,7 +13994,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11016,7 +14037,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11057,7 +14078,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11100,7 +14121,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11143,7 +14164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11186,62 +14207,32 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B163C3B-ADAA-4DFD-B7DC-6EB04C1D0E41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="B2:I11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{ACADC0CF-87FF-416A-B324-D9B8F1FD6713}" name="MaCoCu-tr-en" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{639BF3DA-AEA9-4381-8871-12EC8F4CCD06}" name="MaCoCu-bg-en" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{ED6F0696-ACE3-4243-99D6-5AA0897BABB5}" name="MaCoCu-hr-en" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A209A79-BC7C-4322-BAF1-6C8194B8FA3E}" name="Table2" displayName="Table2" ref="A1:H10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D58A66D7-2CB2-4DA0-9C7C-F112EDF3FD0C}" name="Dataset" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{817841C7-8300-4EE5-A7EB-4612110B8591}" name="MaCoCu-sl-en" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4F6D745B-044A-4221-B2AA-6FDD42AF5263}" name="MaCoCu-is-en" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{E483DA94-7CFE-4B29-97B1-97FA024B9964}" name="MaCoCu-mt-en" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D24BC3C5-CDA8-421D-9083-4958ED6403A7}" name="MaCoCu-mk-en" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{ACADC0CF-87FF-416A-B324-D9B8F1FD6713}" name="MaCoCu-tr-en" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{639BF3DA-AEA9-4381-8871-12EC8F4CCD06}" name="MaCoCu-bg-en" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{ED6F0696-ACE3-4243-99D6-5AA0897BABB5}" name="MaCoCu-hr-en" dataDxfId="0"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9DCF169-3135-4649-85E2-8CA992389CCC}" name="Table1" displayName="Table1" ref="A11:D18" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+  <autoFilter ref="A11:D18" xr:uid="{E9DCF169-3135-4649-85E2-8CA992389CCC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BB405484-59A0-4F9D-A6FE-744FA9D7A5A1}" name="Dataset" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{FE05D5B6-8155-4675-9F14-270C57F21B96}" name="Original no. of texts" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{73F1FF6D-8DF7-40FF-92E9-1DEA1E161FDB}" name="Pre-processed dataset (texts)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FB0FF14D-81E6-4C79-9717-AACD8FF500BA}" name="Texts with genre labels" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -11542,363 +14533,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1544E46A-78C9-4250-9787-2ED89FE698E6}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="2.08984375" style="65" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="19.1796875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.5">
+      <c r="A2" s="66"/>
+      <c r="B2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.5">
-      <c r="A2" s="39" t="s">
+      <c r="J2" s="66"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.5">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I3" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.5">
-      <c r="A3" s="39" t="s">
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.5">
+      <c r="B4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I4" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.5">
-      <c r="A4" s="39" t="s">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.5">
+      <c r="B5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23">
+      <c r="C5" s="21">
         <v>0.12</v>
       </c>
-      <c r="C4" s="23">
+      <c r="D5" s="21">
         <v>0.23</v>
       </c>
-      <c r="D4" s="23">
+      <c r="E5" s="21">
         <v>0.59</v>
       </c>
-      <c r="E4" s="23">
+      <c r="F5" s="21">
         <v>0.41</v>
       </c>
-      <c r="F4" s="23">
+      <c r="G5" s="21">
         <v>0.33</v>
       </c>
-      <c r="G4" s="23">
+      <c r="H5" s="21">
         <v>0.46</v>
       </c>
-      <c r="H4" s="23">
+      <c r="I5" s="21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.5">
-      <c r="A5" s="39" t="s">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.5">
+      <c r="B6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="25">
+      <c r="C6" s="23">
         <v>190</v>
       </c>
-      <c r="C5" s="25">
+      <c r="D6" s="23">
         <v>201</v>
       </c>
-      <c r="D5" s="25">
+      <c r="E6" s="23">
         <v>300</v>
       </c>
-      <c r="E5" s="22">
+      <c r="F6" s="20">
         <v>194</v>
       </c>
-      <c r="F5" s="22">
+      <c r="G6" s="20">
         <v>184</v>
       </c>
-      <c r="G5" s="22">
+      <c r="H6" s="20">
         <v>170</v>
       </c>
-      <c r="H5" s="22">
+      <c r="I6" s="20">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.5">
-      <c r="A6" s="39" t="s">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.5">
+      <c r="B7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22">
+      <c r="C7" s="20">
         <v>0.91</v>
       </c>
-      <c r="C6" s="22">
+      <c r="D7" s="20">
         <v>0.88</v>
       </c>
-      <c r="D6" s="22">
+      <c r="E7" s="20">
         <v>0.93</v>
       </c>
-      <c r="E6" s="22">
+      <c r="F7" s="20">
         <v>0.93</v>
       </c>
-      <c r="F6" s="22">
+      <c r="G7" s="20">
         <v>0.88</v>
       </c>
-      <c r="G6" s="22">
+      <c r="H7" s="20">
         <v>0.91</v>
       </c>
-      <c r="H6" s="22">
+      <c r="I7" s="20">
         <v>0.92</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.5">
-      <c r="A7" s="39" t="s">
+    <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.5">
+      <c r="B8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="22">
+      <c r="C8" s="20">
         <v>5</v>
       </c>
-      <c r="C7" s="22">
+      <c r="D8" s="20">
         <v>16</v>
       </c>
-      <c r="D7" s="22">
+      <c r="E8" s="20">
         <v>13</v>
       </c>
-      <c r="E7" s="22">
+      <c r="F8" s="20">
         <v>26</v>
       </c>
-      <c r="F7" s="22">
+      <c r="G8" s="20">
         <v>7</v>
       </c>
-      <c r="G7" s="22">
+      <c r="H8" s="20">
         <v>7</v>
       </c>
-      <c r="H7" s="22">
+      <c r="I8" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.5">
-      <c r="A8" s="39" t="s">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.5">
+      <c r="B9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="23">
+      <c r="C9" s="21">
         <v>0.1</v>
       </c>
-      <c r="C8" s="23">
+      <c r="D9" s="21">
         <v>0.35</v>
       </c>
-      <c r="D8" s="23">
+      <c r="E9" s="21">
         <v>0.77</v>
       </c>
-      <c r="E8" s="23">
+      <c r="F9" s="21">
         <v>0.38</v>
       </c>
-      <c r="F8" s="23">
+      <c r="G9" s="21">
         <v>0.15</v>
       </c>
-      <c r="G8" s="23">
+      <c r="H9" s="21">
         <v>0.25</v>
       </c>
-      <c r="H8" s="23">
+      <c r="I9" s="21">
         <v>0.17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.5">
-      <c r="A9" s="39" t="s">
+    <row r="10" spans="1:10" s="63" customFormat="1" ht="36" x14ac:dyDescent="0.5">
+      <c r="A10" s="67"/>
+      <c r="B10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="C10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="E10" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="F10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="G10" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="H10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="I10" s="38" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.5">
-      <c r="A10" s="39" t="s">
+      <c r="J10" s="67"/>
+    </row>
+    <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.5">
+      <c r="B11" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="40" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H11" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="60"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="60"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="60"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="60"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="60"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="60"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="60"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11910,6 +14913,95 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.192131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4">
+        <v>8.5563200000000006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.27891100000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.34997200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="23" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3.83608E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.7507500000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.75543E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AA5A83-BD6D-41DA-9982-1ACA03113A1A}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -11924,66 +15016,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>0.33137299999999997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>0.10716299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>5.8135300000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>0.13347000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>4.3516800000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>0.323959</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>2.3835800000000002E-3</v>
       </c>
     </row>
@@ -11998,7 +15090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -12008,82 +15100,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27" style="34" customWidth="1"/>
-    <col min="2" max="3" width="21.1796875" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="31"/>
+    <col min="1" max="1" width="27" style="32" customWidth="1"/>
+    <col min="2" max="3" width="21.1796875" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="31">
         <v>0.277673</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="31">
         <v>0.16120699999999999</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="31">
         <v>3.1772800000000004E-2</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="31">
         <v>0.134713</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="31">
         <v>1.3107500000000001E-2</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="31">
         <v>0.37993199999999999</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="31"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="31">
         <v>1.59458E-3</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{FE0970C1-54A1-466F-8B11-808A46DDE000}">
@@ -12096,7 +15188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1343A133-63B5-47F9-820E-915378298B5C}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -12106,70 +15198,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="29.36328125" style="34" customWidth="1"/>
+    <col min="1" max="2" width="29.36328125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="31">
         <v>0.23852499999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="31">
         <v>7.6639899999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="31">
         <v>3.0696599999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="31">
         <v>0.191916</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="31">
         <v>6.4397399999999994E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="31">
         <v>0.39335199999999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="31">
         <v>4.4723499999999999E-3</v>
       </c>
     </row>
@@ -12181,17 +15273,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815DAF59-4B8F-46CA-A5F7-E17AE84B05E3}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="70">
+        <v>0.42</v>
+      </c>
+      <c r="C2" s="70">
+        <v>0.17</v>
+      </c>
+      <c r="D2" s="69">
+        <f>100%-SUM(B2:C2)</f>
+        <v>0.41000000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="70">
+        <v>0.39</v>
+      </c>
+      <c r="C3" s="70">
+        <v>0.18</v>
+      </c>
+      <c r="D3" s="69">
+        <f t="shared" ref="D3:D8" si="0">100%-SUM(B3:C3)</f>
+        <v>0.42999999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="70">
+        <v>0.63</v>
+      </c>
+      <c r="C4" s="70">
+        <v>0.09</v>
+      </c>
+      <c r="D4" s="69">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="70">
+        <v>0.19</v>
+      </c>
+      <c r="C5" s="70">
+        <v>0.31</v>
+      </c>
+      <c r="D5" s="69">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="70">
+        <v>0.12</v>
+      </c>
+      <c r="C6" s="70">
+        <v>0.34</v>
+      </c>
+      <c r="D6" s="69">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="70">
+        <v>0.18</v>
+      </c>
+      <c r="C7" s="70">
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="69">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="70">
+        <v>0.34</v>
+      </c>
+      <c r="C8" s="70">
+        <v>0.26</v>
+      </c>
+      <c r="D8" s="69">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6537420D-1207-43EE-B3A1-8A7E1D1CB75B}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" customWidth="1"/>
     <col min="4" max="4" width="15.453125" customWidth="1"/>
     <col min="5" max="5" width="15.90625" customWidth="1"/>
@@ -12200,357 +15430,749 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="52"/>
-      <c r="B1" s="56" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="54" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="51">
         <v>0.26347700000000002</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="52">
         <v>0.32245000000000001</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="52">
         <v>0.192131</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="52">
         <v>0.33137299999999997</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="53">
         <v>0.277673</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="53">
         <v>0.23852499999999999</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="31">
         <v>0.31607000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="51">
         <v>3.5707200000000001E-2</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="52">
         <v>0.15903400000000001</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="52">
         <v>8.5563200000000006E-2</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="52">
         <v>0.10716299999999999</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="53">
         <v>0.16120699999999999</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="53">
         <v>7.6639899999999997E-2</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="31">
         <v>0.12117599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="51">
         <v>3.8541899999999997E-2</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="52">
         <v>5.7736900000000001E-2</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="52">
         <v>0.27891100000000002</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="52">
         <v>5.8135300000000001E-2</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="53">
         <v>3.1772800000000004E-2</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <v>3.0696599999999997E-2</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="31">
         <v>5.2947499999999995E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="51">
         <v>0.45877299999999999</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="52">
         <v>0.25053700000000001</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="52">
         <v>0.34997200000000001</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="52">
         <v>0.13347000000000001</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="53">
         <v>0.134713</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="53">
         <v>0.191916</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="31">
         <v>0.170849</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="51">
         <v>3.5458500000000004E-2</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="52">
         <v>5.1121199999999999E-2</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="52">
         <v>3.83608E-2</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="52">
         <v>4.3516800000000001E-2</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="53">
         <v>1.3107500000000001E-2</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="53">
         <v>6.4397399999999994E-2</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="31">
         <v>4.0340999999999995E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="51">
         <v>0.15615699999999999</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="52">
         <v>0.155168</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="52">
         <v>2.7507500000000001E-2</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="52">
         <v>0.323959</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="53">
         <v>0.37993199999999999</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="53">
         <v>0.39335199999999998</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="31">
         <v>0.29240700000000003</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <v>1.18858E-2</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="52">
         <v>3.9522300000000002E-3</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="52">
         <v>2.75543E-2</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="52">
         <v>2.3835800000000002E-3</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="53">
         <v>1.59458E-3</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="53">
         <v>4.4723499999999999E-3</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="31">
         <v>6.2104999999999999E-3</v>
       </c>
     </row>
+    <row r="32" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="71"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="72"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="72"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C40:C47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C8F5A9-FD81-4CD5-A93B-E2A92366F94E}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="4" max="4" width="26.90625" customWidth="1"/>
+    <col min="5" max="5" width="30.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="F1" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>285892</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="8">
         <v>101807</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="61">
+        <f>C2/B2</f>
+        <v>0.35610300393155458</v>
+      </c>
+      <c r="E2" s="8">
         <v>91459</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="60">
+        <f>E2/B2</f>
+        <v>0.31990751752410002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>47206</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>23999</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="61">
+        <f t="shared" ref="D3:D8" si="0">C3/B3</f>
+        <v>0.50838876414015166</v>
+      </c>
+      <c r="E3" s="8">
         <v>21376</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="F3" s="60">
+        <f>E3/B3</f>
+        <v>0.45282379358556119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>40340</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>13174</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="61">
+        <f t="shared" si="0"/>
+        <v>0.32657411998016855</v>
+      </c>
+      <c r="E4" s="8">
         <v>11639</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="F4" s="60">
+        <f>E4/B4</f>
+        <v>0.28852255825483392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>54957</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>22055</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="61">
+        <f t="shared" si="0"/>
+        <v>0.40131375438979566</v>
+      </c>
+      <c r="E5" s="24">
         <v>20108</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="F5" s="60">
+        <f>E5/B5</f>
+        <v>0.36588605637134486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>796473</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="26">
         <v>213147</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="61">
+        <f t="shared" si="0"/>
+        <v>0.26761359142117813</v>
+      </c>
+      <c r="E6" s="24">
         <v>193782</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="F6" s="60">
+        <f>E6/B6</f>
+        <v>0.24330014953425916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <v>287456</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <v>107404</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="61">
+        <f t="shared" si="0"/>
+        <v>0.37363631303573419</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="F7" s="60">
+        <f>88544/B7</f>
+        <v>0.3080262718468218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <v>324666</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>101752</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="61">
+        <f t="shared" si="0"/>
+        <v>0.31340516099622379</v>
+      </c>
+      <c r="E8" s="24">
         <v>91619</v>
       </c>
+      <c r="F8" s="60">
+        <f>E8/B8</f>
+        <v>0.28219462462961936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="60"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="60"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="60"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="60"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="60"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="60"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="60"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="8">
+        <v>285892</v>
+      </c>
+      <c r="C22" s="8">
+        <v>101807</v>
+      </c>
+      <c r="D22" s="8">
+        <v>91459</v>
+      </c>
+      <c r="F22" s="60"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8">
+        <v>47206</v>
+      </c>
+      <c r="C23" s="8">
+        <v>23999</v>
+      </c>
+      <c r="D23" s="8">
+        <v>21376</v>
+      </c>
+      <c r="F23" s="60"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="8">
+        <v>40340</v>
+      </c>
+      <c r="C24" s="8">
+        <v>13174</v>
+      </c>
+      <c r="D24" s="8">
+        <v>11639</v>
+      </c>
+      <c r="F24" s="60"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="24">
+        <v>54957</v>
+      </c>
+      <c r="C25" s="24">
+        <v>22055</v>
+      </c>
+      <c r="D25" s="24">
+        <v>20108</v>
+      </c>
+      <c r="F25" s="60"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="25">
+        <v>796473</v>
+      </c>
+      <c r="C26" s="26">
+        <v>213147</v>
+      </c>
+      <c r="D26" s="24">
+        <v>193782</v>
+      </c>
+      <c r="F26" s="60"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="24">
+        <v>287456</v>
+      </c>
+      <c r="C27" s="24">
+        <v>107404</v>
+      </c>
+      <c r="D27" s="36">
+        <v>88544</v>
+      </c>
+      <c r="F27" s="60"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="24">
+        <v>324666</v>
+      </c>
+      <c r="C28" s="24">
+        <v>101752</v>
+      </c>
+      <c r="D28" s="24">
+        <v>91619</v>
+      </c>
+      <c r="F28" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5045AAAD-7A1A-42C3-8572-22A393E9AA9D}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -12564,28 +16186,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>159</v>
       </c>
     </row>
@@ -12593,25 +16215,25 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="33" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12619,25 +16241,25 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="33" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12645,25 +16267,25 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="33" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12671,25 +16293,25 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="33" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12697,25 +16319,25 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="33" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12723,25 +16345,25 @@
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="33" t="s">
         <v>35</v>
       </c>
     </row>
@@ -12749,25 +16371,25 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12776,7 +16398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F2D52-0DC5-49D1-854E-0E75D3795ABD}">
   <dimension ref="A1:H36"/>
   <sheetViews>
@@ -12793,458 +16415,458 @@
     <col min="5" max="5" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="18.36328125" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="31"/>
+    <col min="8" max="8" width="8.7265625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="49" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="43" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="43" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="43" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="43" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="43" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="43" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="51" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="49" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="49" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="43" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="43" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="43" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="43" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="43" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="43" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="43" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13255,19 +16877,19 @@
       <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="34" t="s">
         <v>55</v>
       </c>
       <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="34" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13275,19 +16897,19 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>36</v>
       </c>
       <c r="E22" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="34" t="s">
         <v>36</v>
       </c>
       <c r="G22" t="s">
@@ -13301,13 +16923,13 @@
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F23" t="s">
@@ -13324,16 +16946,16 @@
       <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="34" t="s">
         <v>39</v>
       </c>
       <c r="G24" t="s">
@@ -13344,22 +16966,22 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="34" t="s">
         <v>36</v>
       </c>
       <c r="F25" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -13367,22 +16989,22 @@
       <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="34" t="s">
         <v>55</v>
       </c>
       <c r="F26" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="34" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13393,42 +17015,42 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -13436,22 +17058,22 @@
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="34" t="s">
         <v>54</v>
       </c>
     </row>
@@ -13459,22 +17081,22 @@
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="35" t="s">
         <v>54</v>
       </c>
     </row>
@@ -13482,22 +17104,22 @@
       <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="34" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13505,19 +17127,19 @@
       <c r="A33" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="35" t="s">
         <v>54</v>
       </c>
       <c r="G33" t="s">
@@ -13528,22 +17150,22 @@
       <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="34" t="s">
         <v>36</v>
       </c>
     </row>
@@ -13551,22 +17173,22 @@
       <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="34" t="s">
         <v>54</v>
       </c>
     </row>
@@ -13574,19 +17196,19 @@
       <c r="A36" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="34" t="s">
         <v>37</v>
       </c>
       <c r="G36" t="s">
@@ -13599,7 +17221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965A385C-5517-4261-9835-AE5C21E0DD22}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -13609,88 +17231,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="31">
         <v>0.31607000000000002</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="31">
         <v>0.12117599999999999</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="31">
         <v>5.2947499999999995E-2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="31">
         <v>0.170849</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="31">
         <v>4.0340999999999995E-2</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="31">
         <v>0.29240700000000003</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="31">
         <v>6.2104999999999999E-3</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13699,7 +17321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D9752B-20C6-4797-82E8-FBA3F0E6167C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -13710,79 +17332,79 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" style="16"/>
+    <col min="2" max="2" width="8.81640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>0.26347700000000002</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>3.5707200000000001E-2</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>3.8541899999999997E-2</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>0.45877299999999999</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>3.5458500000000004E-2</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>0.15615699999999999</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>1.18858E-2</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00D9752B-20C6-4797-82E8-FBA3F0E6167C}">
@@ -13795,7 +17417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB718D3-C404-4D39-8DA3-A6344E204ED8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -13811,66 +17433,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>0.32245000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>0.15903400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>5.7736900000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>0.25053700000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>5.1121199999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>0.155168</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>3.9522300000000002E-3</v>
       </c>
     </row>
@@ -13883,93 +17505,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.192131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6">
-        <v>8.5563200000000006E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.27891100000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.34997200000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6">
-        <v>3.83608E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2.7507500000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2.75543E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{C7311EFB-2DE6-43C1-BB19-9086A9DDA371}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>